--- a/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
+++ b/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -20,20 +20,22 @@
     <sheet name="Function2" sheetId="22" r:id="rId6"/>
     <sheet name="Function3" sheetId="24" r:id="rId7"/>
     <sheet name="Function4" sheetId="25" r:id="rId8"/>
-    <sheet name="Template" sheetId="15" r:id="rId9"/>
+    <sheet name="Function5" sheetId="26" r:id="rId9"/>
+    <sheet name="Function6" sheetId="27" r:id="rId10"/>
+    <sheet name="Template" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="ACTION" localSheetId="8">#REF!</definedName>
+    <definedName name="ACTION" localSheetId="10">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Template!$A$1:$T$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Template!$A$1:$T$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TestCaseList!$A$1:$H$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">TestReport!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="8" hidden="1">Template!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="10" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="8" hidden="1">Template!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="10" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="8" hidden="1">Template!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="10" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -309,8 +311,84 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nguyen Hoang Anh</author>
+    <author>ANa</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Not mandatory
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nguyen Hoang Anh</author>
+    <author>ANa</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Not mandatory
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="180">
   <si>
     <t>&lt;Date when this test report is created&gt;</t>
   </si>
@@ -926,9 +1004,6 @@
     <t>Nguyen Van Quyen</t>
   </si>
   <si>
-    <t>getTask(shipperID)</t>
-  </si>
-  <si>
     <t>WebStorm</t>
   </si>
   <si>
@@ -975,13 +1050,49 @@
     <t>changeIsPending(shipperID, issueID)</t>
   </si>
   <si>
-    <t>createIssue(shipperID, newIssue, orders, categoryIssue)</t>
-  </si>
-  <si>
     <t>SP004</t>
   </si>
   <si>
     <t>Function4</t>
+  </si>
+  <si>
+    <t>getTasks(shipperID)</t>
+  </si>
+  <si>
+    <t>createIssueDisconnect(shipperID)</t>
+  </si>
+  <si>
+    <t>createIssuePending(shipperID, newIssue, orders, categoryIssue)</t>
+  </si>
+  <si>
+    <t>SP005</t>
+  </si>
+  <si>
+    <t>Function5</t>
+  </si>
+  <si>
+    <t>cancelOrder(ownerStoreUser, storeID, orderID)</t>
+  </si>
+  <si>
+    <t>SP006</t>
+  </si>
+  <si>
+    <t>Function6</t>
+  </si>
+  <si>
+    <t>Get Tasks were issued pending of Shipper</t>
+  </si>
+  <si>
+    <t>Change shipper cannot continue to shipper continue their task</t>
+  </si>
+  <si>
+    <t>Create new issue pending  of shipper</t>
+  </si>
+  <si>
+    <t>create new issue when shipper disconnected</t>
+  </si>
+  <si>
+    <t>Store request cancel Order</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3255,6 +3366,15 @@
     <xf numFmtId="0" fontId="24" fillId="24" borderId="15" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3334,12 +3454,102 @@
     <xf numFmtId="14" fontId="41" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3370,113 +3580,23 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -5797,6 +5917,2363 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:23" ht="21" customHeight="1">
+      <c r="A2" s="233" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="234"/>
+      <c r="C2" s="281" t="str">
+        <f>TestCaseList!E16</f>
+        <v>SP006</v>
+      </c>
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="282" t="str">
+        <f>TestCaseList!D16</f>
+        <v>cancelOrder(ownerStoreUser, storeID, orderID)</v>
+      </c>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A3" s="239" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="239" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
+        <v>9</v>
+      </c>
+      <c r="D4" s="246"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="244" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="278">
+        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
+        <v>-14.1</v>
+      </c>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="239" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A6" s="252" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="267" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="279" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
+        <f>COUNTIF(F40:HQ40,"F")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254" t="e">
+        <f>SUM(O7,- A7,- C7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="80">
+        <f>COUNTIF(E39:HQ39,"N")</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E39:HQ39,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="80">
+        <f>COUNTIF(E39:HQ39,"B")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="264">
+        <f>COUNTA(E9:HT9)</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="81"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="122"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
+      <c r="V11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="124"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="124"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="124"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="124"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="124"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="124"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="124"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="124"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="124"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="124"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="124"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="127"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A31" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="122"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="124"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="124"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="128"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="124"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="124"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="124"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="124"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="130"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A39" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" s="132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="258"/>
+      <c r="D40" s="258"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="G41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="H41" s="108">
+        <v>39140</v>
+      </c>
+      <c r="I41" s="108">
+        <v>39141</v>
+      </c>
+      <c r="J41" s="108">
+        <v>39142</v>
+      </c>
+      <c r="K41" s="108">
+        <v>39143</v>
+      </c>
+      <c r="L41" s="108">
+        <v>39144</v>
+      </c>
+      <c r="M41" s="108">
+        <v>39145</v>
+      </c>
+      <c r="N41" s="108">
+        <v>39146</v>
+      </c>
+      <c r="O41" s="108">
+        <v>39147</v>
+      </c>
+      <c r="P41" s="108">
+        <v>39148</v>
+      </c>
+      <c r="Q41" s="108">
+        <v>39149</v>
+      </c>
+      <c r="R41" s="108">
+        <v>39150</v>
+      </c>
+      <c r="S41" s="108">
+        <v>39151</v>
+      </c>
+      <c r="T41" s="109">
+        <v>39152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="112"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A43" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A2" s="233" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="234"/>
+      <c r="C2" s="235" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="236"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="277" t="str">
+        <f>TestCaseList!D15</f>
+        <v>createIssueDisconnect(shipperID)</v>
+      </c>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="284"/>
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A3" s="239" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="239" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
+        <v>9</v>
+      </c>
+      <c r="D4" s="246"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="244" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="278">
+        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
+        <v>-14.1</v>
+      </c>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="239" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A6" s="252" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="267" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="279" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
+        <f>COUNTIF(F40:HQ40,"F")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254" t="e">
+        <f>SUM(O7,- A7,- C7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="80">
+        <f>COUNTIF(E39:HQ39,"N")</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E39:HQ39,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="80">
+        <f>COUNTIF(E39:HQ39,"B")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="264">
+        <f>COUNTA(E9:HT9)</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="81"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="122"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
+      <c r="V11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="124"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="124"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="124"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="124"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="124"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="124"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="124"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="124"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="124"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="124"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="124"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="127"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A31" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="122"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="124"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="124"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="128"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="124"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="124"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="124"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="124"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="130"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A39" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" s="132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="258"/>
+      <c r="D40" s="258"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="G41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="H41" s="108">
+        <v>39140</v>
+      </c>
+      <c r="I41" s="108">
+        <v>39141</v>
+      </c>
+      <c r="J41" s="108">
+        <v>39142</v>
+      </c>
+      <c r="K41" s="108">
+        <v>39143</v>
+      </c>
+      <c r="L41" s="108">
+        <v>39144</v>
+      </c>
+      <c r="M41" s="108">
+        <v>39145</v>
+      </c>
+      <c r="N41" s="108">
+        <v>39146</v>
+      </c>
+      <c r="O41" s="108">
+        <v>39147</v>
+      </c>
+      <c r="P41" s="108">
+        <v>39148</v>
+      </c>
+      <c r="Q41" s="108">
+        <v>39149</v>
+      </c>
+      <c r="R41" s="108">
+        <v>39150</v>
+      </c>
+      <c r="S41" s="108">
+        <v>39151</v>
+      </c>
+      <c r="T41" s="109">
+        <v>39152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="112"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A43" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="40"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
@@ -5818,13 +8295,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="143" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="142"/>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="206" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="144"/>
@@ -5835,11 +8312,11 @@
       <c r="A4" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="160" t="s">
         <v>89</v>
       </c>
@@ -5851,11 +8328,11 @@
       <c r="A5" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="160" t="s">
         <v>92</v>
       </c>
@@ -5864,14 +8341,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="160" t="s">
         <v>94</v>
       </c>
@@ -5880,10 +8357,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="205"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="160" t="s">
         <v>95</v>
       </c>
@@ -6031,7 +8508,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -6039,7 +8516,7 @@
     <col min="1" max="1" width="7.125" style="35" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="35" customWidth="1"/>
     <col min="3" max="3" width="19" style="35" customWidth="1"/>
-    <col min="4" max="4" width="42.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="21" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="3" customWidth="1"/>
@@ -6065,41 +8542,41 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="211"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="214"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209" t="str">
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="212" t="str">
         <f>Cover!B5</f>
         <v>AKP</v>
       </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="211"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="214"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="218" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="220"/>
       <c r="E6" s="190">
         <v>100</v>
       </c>
@@ -6108,18 +8585,18 @@
       <c r="H6" s="192"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="212" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="215" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6174,10 +8651,10 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="189" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>57</v>
@@ -6192,10 +8669,10 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>162</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>3</v>
@@ -6210,10 +8687,10 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="202" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" s="201" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>43</v>
@@ -6227,35 +8704,51 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="202" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>168</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="54"/>
+      <c r="A15" s="54">
+        <v>5</v>
+      </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="D15" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="54"/>
+      <c r="A16" s="54">
+        <v>6</v>
+      </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>174</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
     </row>
@@ -6377,17 +8870,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -6404,65 +8897,65 @@
       <c r="A4" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="222" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="223" t="s">
+      <c r="B4" s="225" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="225"/>
+      <c r="D4" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="223"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="229"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="223" t="s">
+      <c r="B5" s="225"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="223"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="229"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="223" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="223"/>
-      <c r="F6" s="227" t="s">
+      <c r="E6" s="226"/>
+      <c r="F6" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="229"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="232"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -6592,8 +9085,8 @@
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="45"/>
       <c r="B14" s="196"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="222"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46"/>
@@ -6777,7 +9270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -6801,59 +9296,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="265" t="str">
+      <c r="B2" s="234"/>
+      <c r="C2" s="235" t="str">
         <f>TestCaseList!E11</f>
         <v>SP001</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="268" t="s">
+      <c r="D2" s="236"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="239" t="str">
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="272" t="str">
         <f>TestCaseList!D11</f>
-        <v>getTask(shipperID)</v>
-      </c>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
+        <v>getTasks(shipperID)</v>
+      </c>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="239" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="269" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="257" t="s">
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -6862,117 +9357,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255">
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
         <v>42</v>
       </c>
-      <c r="D4" s="256"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="247">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="239" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="261" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="250" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250" t="s">
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="233" t="s">
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="233" t="s">
+      <c r="M6" s="267"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="235"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="268"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="218">
+      <c r="A7" s="221">
         <f>COUNTIF(F41:HQ41,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="251">
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
         <f>COUNTIF(F41:HQ41,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="251">
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="252"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
       <c r="L7" s="80">
         <f>COUNTIF(E40:HQ40,"N")</f>
         <v>3</v>
@@ -6985,15 +9480,15 @@
         <f>COUNTIF(E40:HQ40,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="230">
+      <c r="O7" s="264">
         <f>COUNTA(E9:HT9)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="232"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -7154,7 +9649,7 @@
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
       <c r="D15" s="88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="195"/>
       <c r="F15" s="123" t="s">
@@ -7180,7 +9675,7 @@
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
       <c r="D16" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="195"/>
       <c r="F16" s="123"/>
@@ -7258,7 +9753,7 @@
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
       <c r="D19" s="88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="195"/>
       <c r="F19" s="123"/>
@@ -7509,7 +10004,7 @@
       <c r="B30" s="101"/>
       <c r="C30" s="99"/>
       <c r="D30" s="100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="193"/>
       <c r="F30" s="123" t="s">
@@ -7535,7 +10030,7 @@
       <c r="B31" s="101"/>
       <c r="C31" s="99"/>
       <c r="D31" s="100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="193"/>
       <c r="F31" s="123"/>
@@ -7561,7 +10056,7 @@
       <c r="B32" s="101"/>
       <c r="C32" s="99"/>
       <c r="D32" s="100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="193"/>
       <c r="F32" s="123"/>
@@ -7587,7 +10082,7 @@
       <c r="B33" s="101"/>
       <c r="C33" s="99"/>
       <c r="D33" s="100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="193"/>
       <c r="F33" s="123"/>
@@ -7610,11 +10105,11 @@
     </row>
     <row r="34" spans="1:20" ht="41.25" customHeight="1">
       <c r="A34" s="116"/>
-      <c r="B34" s="246" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="247"/>
-      <c r="D34" s="248"/>
+      <c r="B34" s="261" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="262"/>
+      <c r="D34" s="263"/>
       <c r="E34" s="102"/>
       <c r="F34" s="123"/>
       <c r="G34" s="123"/>
@@ -7752,11 +10247,11 @@
       <c r="A40" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="242" t="s">
+      <c r="B40" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
+      <c r="C40" s="257"/>
+      <c r="D40" s="257"/>
       <c r="E40" s="194"/>
       <c r="F40" s="131" t="s">
         <v>24</v>
@@ -7786,11 +10281,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="243" t="s">
+      <c r="B41" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="243"/>
-      <c r="D41" s="243"/>
+      <c r="C41" s="258"/>
+      <c r="D41" s="258"/>
       <c r="E41" s="107"/>
       <c r="F41" s="133" t="s">
         <v>26</v>
@@ -7820,11 +10315,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="116"/>
-      <c r="B42" s="244" t="s">
+      <c r="B42" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="244"/>
-      <c r="D42" s="244"/>
+      <c r="C42" s="259"/>
+      <c r="D42" s="259"/>
       <c r="E42" s="102"/>
       <c r="F42" s="108">
         <v>39139</v>
@@ -7854,11 +10349,11 @@
     </row>
     <row r="43" spans="1:20" ht="11.25" thickBot="1">
       <c r="A43" s="117"/>
-      <c r="B43" s="245" t="s">
+      <c r="B43" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="245"/>
-      <c r="D43" s="245"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="260"/>
       <c r="E43" s="110"/>
       <c r="F43" s="111"/>
       <c r="G43" s="111"/>
@@ -7881,34 +10376,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L2:T2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
@@ -7931,7 +10426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
   <cols>
@@ -7954,59 +10451,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="265" t="str">
+      <c r="B2" s="234"/>
+      <c r="C2" s="235" t="str">
         <f>TestCaseList!E12</f>
         <v>SP002</v>
       </c>
       <c r="D2" s="275"/>
       <c r="E2" s="276"/>
-      <c r="F2" s="268" t="s">
+      <c r="F2" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
       <c r="L2" s="277" t="str">
         <f>TestCaseList!D12</f>
         <v>getTaskBeIssuePending(shipperID)</v>
       </c>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="239" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="269" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="257" t="s">
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -8015,117 +10512,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255">
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
         <v>41</v>
       </c>
-      <c r="D4" s="256"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="274">
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="278">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-10.9</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="239" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="261" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="250" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250" t="s">
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="234" t="s">
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="273" t="s">
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="273"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="218">
+      <c r="A7" s="221">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>12</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="251">
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="251">
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254">
         <f>SUM(O7,- A7,- C7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="252"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -8138,15 +10635,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="230">
+      <c r="O7" s="264">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="232"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -8418,8 +10915,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -8866,11 +11363,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="242" t="s">
+      <c r="B39" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
       <c r="E39" s="194"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -8920,11 +11417,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="243" t="s">
+      <c r="B40" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="243"/>
-      <c r="D40" s="243"/>
+      <c r="C40" s="258"/>
+      <c r="D40" s="258"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -8972,11 +11469,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="244" t="s">
+      <c r="B41" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -9026,11 +11523,2357 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="245"/>
-      <c r="D42" s="245"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="112"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A43" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A2" s="233" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="234"/>
+      <c r="C2" s="281" t="str">
+        <f>TestCaseList!E13</f>
+        <v>SP003</v>
+      </c>
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="282" t="str">
+        <f>TestCaseList!D13</f>
+        <v>changeIsPending(shipperID, issueID)</v>
+      </c>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A3" s="239" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="239" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
+        <v>9</v>
+      </c>
+      <c r="D4" s="246"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="244" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="278">
+        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
+        <v>-14.1</v>
+      </c>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="239" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A6" s="252" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="267" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="279" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
+        <f>COUNTIF(F40:HQ40,"F")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254" t="e">
+        <f>SUM(O7,- A7,- C7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="80">
+        <f>COUNTIF(E39:HQ39,"N")</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E39:HQ39,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="80">
+        <f>COUNTIF(E39:HQ39,"B")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="264">
+        <f>COUNTA(E9:HT9)</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="81"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="122"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
+      <c r="V11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="124"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="124"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="124"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="124"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="124"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="124"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="124"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="124"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="124"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="124"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="124"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="127"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A31" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="122"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="124"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="124"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="128"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="124"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="124"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="124"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="124"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="130"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A39" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" s="132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="258"/>
+      <c r="D40" s="258"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="G41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="H41" s="108">
+        <v>39140</v>
+      </c>
+      <c r="I41" s="108">
+        <v>39141</v>
+      </c>
+      <c r="J41" s="108">
+        <v>39142</v>
+      </c>
+      <c r="K41" s="108">
+        <v>39143</v>
+      </c>
+      <c r="L41" s="108">
+        <v>39144</v>
+      </c>
+      <c r="M41" s="108">
+        <v>39145</v>
+      </c>
+      <c r="N41" s="108">
+        <v>39146</v>
+      </c>
+      <c r="O41" s="108">
+        <v>39147</v>
+      </c>
+      <c r="P41" s="108">
+        <v>39148</v>
+      </c>
+      <c r="Q41" s="108">
+        <v>39149</v>
+      </c>
+      <c r="R41" s="108">
+        <v>39150</v>
+      </c>
+      <c r="S41" s="108">
+        <v>39151</v>
+      </c>
+      <c r="T41" s="109">
+        <v>39152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="112"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A43" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="2.875" style="74" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:23" ht="24" customHeight="1">
+      <c r="A2" s="233" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="234"/>
+      <c r="C2" s="235" t="str">
+        <f>TestCaseList!E14</f>
+        <v>SP004</v>
+      </c>
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="282" t="str">
+        <f>TestCaseList!D14</f>
+        <v>createIssuePending(shipperID, newIssue, orders, categoryIssue)</v>
+      </c>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A3" s="239" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="239" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
+        <v>9</v>
+      </c>
+      <c r="D4" s="246"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="244" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="278">
+        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
+        <v>-14.1</v>
+      </c>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="239" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A6" s="252" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="267" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="279" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
+        <f>COUNTIF(F40:HQ40,"F")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254" t="e">
+        <f>SUM(O7,- A7,- C7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="80">
+        <f>COUNTIF(E39:HQ39,"N")</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E39:HQ39,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="80">
+        <f>COUNTIF(E39:HQ39,"B")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="264">
+        <f>COUNTA(E9:HT9)</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="81"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="122"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
+      <c r="V11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="124"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="124"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="124"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="124"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="124"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="124"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="124"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="124"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="124"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="124"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="124"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="127"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A31" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="122"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="124"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="124"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="128"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="124"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="124"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="124"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="124"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="130"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A39" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" s="132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="258"/>
+      <c r="D40" s="258"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="G41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="H41" s="108">
+        <v>39140</v>
+      </c>
+      <c r="I41" s="108">
+        <v>39141</v>
+      </c>
+      <c r="J41" s="108">
+        <v>39142</v>
+      </c>
+      <c r="K41" s="108">
+        <v>39143</v>
+      </c>
+      <c r="L41" s="108">
+        <v>39144</v>
+      </c>
+      <c r="M41" s="108">
+        <v>39145</v>
+      </c>
+      <c r="N41" s="108">
+        <v>39146</v>
+      </c>
+      <c r="O41" s="108">
+        <v>39147</v>
+      </c>
+      <c r="P41" s="108">
+        <v>39148</v>
+      </c>
+      <c r="Q41" s="108">
+        <v>39149</v>
+      </c>
+      <c r="R41" s="108">
+        <v>39150</v>
+      </c>
+      <c r="S41" s="108">
+        <v>39151</v>
+      </c>
+      <c r="T41" s="109">
+        <v>39152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -9100,11 +13943,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
   <cols>
@@ -9127,59 +13972,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="278" t="str">
-        <f>TestCaseList!E13</f>
-        <v>SP003</v>
+      <c r="B2" s="234"/>
+      <c r="C2" s="281" t="str">
+        <f>TestCaseList!E15</f>
+        <v>SP005</v>
       </c>
       <c r="D2" s="275"/>
       <c r="E2" s="276"/>
-      <c r="F2" s="268" t="s">
+      <c r="F2" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="279" t="str">
-        <f>TestCaseList!D13</f>
-        <v>changeIsPending(shipperID, issueID)</v>
-      </c>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="282" t="str">
+        <f>TestCaseList!D15</f>
+        <v>createIssueDisconnect(shipperID)</v>
+      </c>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="274"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="239" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="269" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="257" t="s">
+      <c r="D3" s="242"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="244" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -9188,116 +14033,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255">
+      <c r="B4" s="240"/>
+      <c r="C4" s="245">
         <v>9</v>
       </c>
-      <c r="D4" s="256"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="274">
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="278">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="249"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="239" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="261" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="250" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="250" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="253" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250" t="s">
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="234" t="s">
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="273" t="s">
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="273"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="251">
+      <c r="B7" s="222"/>
+      <c r="C7" s="254">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="251" t="e">
+      <c r="D7" s="255"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="254" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="252"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="256"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -9310,15 +14155,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="230">
+      <c r="O7" s="264">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="232"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="265"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -9477,7 +14322,7 @@
       </c>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
-      <c r="E14" s="195"/>
+      <c r="E14" s="205"/>
       <c r="F14" s="123"/>
       <c r="G14" s="123"/>
       <c r="H14" s="123"/>
@@ -9499,7 +14344,7 @@
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
       <c r="D15" s="88"/>
-      <c r="E15" s="195"/>
+      <c r="E15" s="205"/>
       <c r="F15" s="123"/>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
@@ -9521,7 +14366,7 @@
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="195"/>
+      <c r="E16" s="205"/>
       <c r="F16" s="123"/>
       <c r="G16" s="123"/>
       <c r="H16" s="123"/>
@@ -9543,7 +14388,7 @@
       <c r="B17" s="86"/>
       <c r="C17" s="87"/>
       <c r="D17" s="88"/>
-      <c r="E17" s="195"/>
+      <c r="E17" s="205"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
       <c r="H17" s="123"/>
@@ -9568,7 +14413,7 @@
       </c>
       <c r="C18" s="87"/>
       <c r="D18" s="88"/>
-      <c r="E18" s="195"/>
+      <c r="E18" s="205"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
@@ -9590,8 +14435,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -9613,7 +14458,7 @@
       <c r="B20" s="86"/>
       <c r="C20" s="87"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="195"/>
+      <c r="E20" s="205"/>
       <c r="F20" s="123"/>
       <c r="G20" s="123"/>
       <c r="H20" s="123"/>
@@ -9635,7 +14480,7 @@
       <c r="B21" s="86"/>
       <c r="C21" s="87"/>
       <c r="D21" s="88"/>
-      <c r="E21" s="195"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="123"/>
       <c r="G21" s="123"/>
       <c r="H21" s="123"/>
@@ -9657,7 +14502,7 @@
       <c r="B22" s="86"/>
       <c r="C22" s="87"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="195"/>
+      <c r="E22" s="205"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
@@ -9679,7 +14524,7 @@
       <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="88"/>
-      <c r="E23" s="195"/>
+      <c r="E23" s="205"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -9701,7 +14546,7 @@
       <c r="B24" s="86"/>
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
-      <c r="E24" s="195"/>
+      <c r="E24" s="205"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
@@ -9723,7 +14568,7 @@
       <c r="B25" s="86"/>
       <c r="C25" s="87"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="195"/>
+      <c r="E25" s="205"/>
       <c r="F25" s="123"/>
       <c r="G25" s="123"/>
       <c r="H25" s="123"/>
@@ -9745,7 +14590,7 @@
       <c r="B26" s="86"/>
       <c r="C26" s="87"/>
       <c r="D26" s="88"/>
-      <c r="E26" s="195"/>
+      <c r="E26" s="205"/>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
@@ -9767,7 +14612,7 @@
       <c r="B27" s="86"/>
       <c r="C27" s="87"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="195"/>
+      <c r="E27" s="205"/>
       <c r="F27" s="123"/>
       <c r="G27" s="123"/>
       <c r="H27" s="123"/>
@@ -9789,7 +14634,7 @@
       <c r="B28" s="86"/>
       <c r="C28" s="87"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="195"/>
+      <c r="E28" s="205"/>
       <c r="F28" s="123"/>
       <c r="G28" s="123"/>
       <c r="H28" s="123"/>
@@ -9811,7 +14656,7 @@
       <c r="B29" s="86"/>
       <c r="C29" s="87"/>
       <c r="D29" s="88"/>
-      <c r="E29" s="195"/>
+      <c r="E29" s="205"/>
       <c r="F29" s="123"/>
       <c r="G29" s="123"/>
       <c r="H29" s="123"/>
@@ -9881,7 +14726,7 @@
       <c r="B32" s="101"/>
       <c r="C32" s="99"/>
       <c r="D32" s="100"/>
-      <c r="E32" s="193"/>
+      <c r="E32" s="204"/>
       <c r="F32" s="123"/>
       <c r="G32" s="123"/>
       <c r="H32" s="123"/>
@@ -10038,12 +14883,12 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="242" t="s">
+      <c r="B39" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="194"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="203"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
       </c>
@@ -10092,11 +14937,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="243" t="s">
+      <c r="B40" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="243"/>
-      <c r="D40" s="243"/>
+      <c r="C40" s="258"/>
+      <c r="D40" s="258"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -10144,11 +14989,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="244" t="s">
+      <c r="B41" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -10198,1182 +15043,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="245"/>
-      <c r="D42" s="245"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A43" s="135"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="263" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="265" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="268" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="277">
-        <f>TestCaseList!D15</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
-      <c r="R2" s="280"/>
-      <c r="S2" s="280"/>
-      <c r="T2" s="281"/>
-      <c r="V2" s="76"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="253" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="269" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="257" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="253" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255">
-        <v>9</v>
-      </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="257" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="274">
-        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-14.1</v>
-      </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
-      <c r="V4" s="76"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="253" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="261" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="249" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="250" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="234" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="273" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="273"/>
-      <c r="V6" s="76"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="218" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="251">
-        <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="251" t="e">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="80">
-        <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>12</v>
-      </c>
-      <c r="M7" s="80">
-        <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="80">
-        <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="230">
-        <f>COUNTA(E9:HT9)</f>
-        <v>15</v>
-      </c>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="81"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="140" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="85"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="122"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="124"/>
-      <c r="V11" s="76"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="124"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="124"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="124"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="124"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="124"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="124"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="124"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="124"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="124"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="124"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="124"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="124"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="124"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="124"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="114"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="124"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="114"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="124"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="127"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A31" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="122"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="124"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="124"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A39" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="242" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="243" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="243"/>
-      <c r="D40" s="243"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="244" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="G41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="H41" s="108">
-        <v>39140</v>
-      </c>
-      <c r="I41" s="108">
-        <v>39141</v>
-      </c>
-      <c r="J41" s="108">
-        <v>39142</v>
-      </c>
-      <c r="K41" s="108">
-        <v>39143</v>
-      </c>
-      <c r="L41" s="108">
-        <v>39144</v>
-      </c>
-      <c r="M41" s="108">
-        <v>39145</v>
-      </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="245" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="245"/>
-      <c r="D42" s="245"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -11441,1187 +15115,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="263" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="265" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="268" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="277">
-        <f>TestCaseList!D15</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
-      <c r="R2" s="280"/>
-      <c r="S2" s="280"/>
-      <c r="T2" s="281"/>
-      <c r="V2" s="76"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="253" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="269" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="257" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="253" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255">
-        <v>9</v>
-      </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="257" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="274">
-        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-14.1</v>
-      </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
-      <c r="V4" s="76"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="253" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="261" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="249" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="250" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="234" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="273" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="273"/>
-      <c r="V6" s="76"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="218" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="251">
-        <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="251" t="e">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="80">
-        <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>12</v>
-      </c>
-      <c r="M7" s="80">
-        <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="80">
-        <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="230">
-        <f>COUNTA(E9:HT9)</f>
-        <v>15</v>
-      </c>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="81"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="140" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="85"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="122"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="124"/>
-      <c r="V11" s="76"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="124"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="124"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="124"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="124"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="124"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="124"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="124"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="124"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="124"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="124"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="124"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="124"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="124"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="124"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="114"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="124"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="114"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="124"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="127"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A31" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="122"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="124"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="124"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A39" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="242" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="243" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="243"/>
-      <c r="D40" s="243"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="244" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="G41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="H41" s="108">
-        <v>39140</v>
-      </c>
-      <c r="I41" s="108">
-        <v>39141</v>
-      </c>
-      <c r="J41" s="108">
-        <v>39142</v>
-      </c>
-      <c r="K41" s="108">
-        <v>39143</v>
-      </c>
-      <c r="L41" s="108">
-        <v>39144</v>
-      </c>
-      <c r="M41" s="108">
-        <v>39145</v>
-      </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="245" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="245"/>
-      <c r="D42" s="245"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A43" s="135"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <phoneticPr fontId="40"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
+++ b/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="190">
   <si>
     <t>&lt;Date when this test report is created&gt;</t>
   </si>
@@ -1016,12 +1016,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>SP000001</t>
-  </si>
-  <si>
-    <t>group{}</t>
-  </si>
-  <si>
     <t>group{'Pickup': [{"OD122222", 1, 1, false, 2, "Huyện Gia Lâm - Hà Nội", "Huyện Đông Anh - Hà Nội", "2015-11-08T17:00:00.000Z"}, {}],
  'Ship': [{}, {}], 'Express': [{}, {}], 'Return': [{}, {}]}</t>
   </si>
@@ -1029,15 +1023,9 @@
     <t>Karry Wel Application</t>
   </si>
   <si>
-    <t>^!$3*</t>
-  </si>
-  <si>
     <t>SP001</t>
   </si>
   <si>
-    <t>getTaskBeIssuePending(shipperID)</t>
-  </si>
-  <si>
     <t>SP002</t>
   </si>
   <si>
@@ -1047,18 +1035,12 @@
     <t>=TestCaseList!E13</t>
   </si>
   <si>
-    <t>changeIsPending(shipperID, issueID)</t>
-  </si>
-  <si>
     <t>SP004</t>
   </si>
   <si>
     <t>Function4</t>
   </si>
   <si>
-    <t>getTasks(shipperID)</t>
-  </si>
-  <si>
     <t>createIssueDisconnect(shipperID)</t>
   </si>
   <si>
@@ -1093,6 +1075,54 @@
   </si>
   <si>
     <t>Store request cancel Order</t>
+  </si>
+  <si>
+    <t>getTasks(req, res, next)</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>req.user</t>
+  </si>
+  <si>
+    <t>req.user.username</t>
+  </si>
+  <si>
+    <t>"SP000001"</t>
+  </si>
+  <si>
+    <t>"SP000002"</t>
+  </si>
+  <si>
+    <t>"AD000001"</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>res.status</t>
+  </si>
+  <si>
+    <t>UnauthorizedError</t>
+  </si>
+  <si>
+    <t>req.data</t>
+  </si>
+  <si>
+    <t>"ST000001"</t>
+  </si>
+  <si>
+    <t>getTaskBeIssuePending(req, res, next)</t>
+  </si>
+  <si>
+    <t>changeIsPending(req, res, next)</t>
+  </si>
+  <si>
+    <t>req.body.issueId</t>
+  </si>
+  <si>
+    <t>^$#@@$@!(*_</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1512,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,6 +1681,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00006C"/>
         <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2829,7 +2865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3375,6 +3411,36 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="35" fillId="29" borderId="31" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="39" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3454,6 +3520,12 @@
     <xf numFmtId="14" fontId="41" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3580,13 +3652,31 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3597,18 +3687,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3833,10 +3911,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4312,10 +4390,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5922,7 +6000,7 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -5946,59 +6024,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="281" t="str">
+      <c r="B2" s="246"/>
+      <c r="C2" s="294" t="str">
         <f>TestCaseList!E16</f>
         <v>SP006</v>
       </c>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="238" t="s">
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="282" t="str">
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="295" t="str">
         <f>TestCaseList!D16</f>
         <v>cancelOrder(ownerStoreUser, storeID, orderID)</v>
       </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="274"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="286"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -6007,116 +6085,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
         <v>9</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="278">
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="296">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="267" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="279" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="279"/>
+      <c r="P6" s="297"/>
+      <c r="Q6" s="297"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254" t="e">
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="268"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -6129,15 +6207,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="264">
+      <c r="O7" s="276">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="277"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -6409,8 +6487,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -6857,11 +6935,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="257" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="203"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -6911,11 +6989,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -6963,11 +7041,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="259" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -7017,11 +7095,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -7051,11 +7129,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -7066,6 +7139,11 @@
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
@@ -7095,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -7120,58 +7198,58 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="235" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="238" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="247" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="248"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="277" t="str">
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="295" t="str">
         <f>TestCaseList!D15</f>
         <v>createIssueDisconnect(shipperID)</v>
       </c>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="283"/>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="284"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="286"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -7180,116 +7258,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
         <v>9</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="278">
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="296">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="267" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="279" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="279"/>
+      <c r="P6" s="297"/>
+      <c r="Q6" s="297"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254" t="e">
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="268"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -7302,15 +7380,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="264">
+      <c r="O7" s="276">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="277"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -7582,8 +7660,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -8030,11 +8108,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="257" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="158"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -8084,11 +8162,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -8136,11 +8214,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="259" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -8190,11 +8268,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -8295,13 +8373,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="143" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="142"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="216" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="144"/>
@@ -8312,11 +8390,11 @@
       <c r="A4" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
       <c r="E4" s="160" t="s">
         <v>89</v>
       </c>
@@ -8328,11 +8406,11 @@
       <c r="A5" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="160" t="s">
         <v>92</v>
       </c>
@@ -8341,14 +8419,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="218" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="219" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
       <c r="E6" s="160" t="s">
         <v>94</v>
       </c>
@@ -8357,10 +8435,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
+      <c r="A7" s="218"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
       <c r="E7" s="160" t="s">
         <v>95</v>
       </c>
@@ -8508,7 +8586,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -8542,41 +8620,41 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="214"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="224"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212" t="str">
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="str">
         <f>Cover!B5</f>
         <v>AKP</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="214"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="224"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="220"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="230"/>
       <c r="E6" s="190">
         <v>100</v>
       </c>
@@ -8585,18 +8663,18 @@
       <c r="H6" s="192"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="220" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="215" t="s">
+      <c r="B7" s="220"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="217"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="227"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -8651,10 +8729,10 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="189" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>57</v>
@@ -8669,10 +8747,10 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>3</v>
@@ -8687,10 +8765,10 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="202" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E13" s="201" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>43</v>
@@ -8705,13 +8783,13 @@
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="202" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
@@ -8723,13 +8801,13 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="202" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E15" s="201" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
@@ -8741,13 +8819,13 @@
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="202" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E16" s="201" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
@@ -8837,7 +8915,7 @@
     <hyperlink ref="F14" location="Function4!A1" display="Funtion4"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -8853,7 +8931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -8870,17 +8948,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="234" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -8897,65 +8975,65 @@
       <c r="A4" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="225" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="226" t="s">
+      <c r="B4" s="235" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="226"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="229"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="239"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226" t="s">
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="226"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="229"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="239"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226" t="s">
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="226"/>
-      <c r="F6" s="230" t="s">
+      <c r="E6" s="236"/>
+      <c r="F6" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="232"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -9039,19 +9117,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="47">
+        <f>Function1!K7</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="46">
         <f>Function1!L7</f>
         <v>3</v>
       </c>
-      <c r="G12" s="46">
+      <c r="H12" s="46">
         <f>Function1!M7</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="46">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46">
         <f>Function1!N7</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="46">
-        <f>Function1!O7</f>
         <v>5</v>
       </c>
     </row>
@@ -9085,8 +9163,8 @@
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="45"/>
       <c r="B14" s="196"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46"/>
@@ -9134,11 +9212,11 @@
       </c>
       <c r="F17" s="49">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="0"/>
@@ -9203,7 +9281,7 @@
       <c r="C21" s="41"/>
       <c r="D21" s="173">
         <f>F17*100/I17</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>5</v>
@@ -9215,7 +9293,7 @@
       </c>
       <c r="D22" s="173">
         <f>G17*100/I17</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>5</v>
@@ -9268,23 +9346,1121 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="74" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="75" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="74" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="2.875" style="74" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.875" style="74" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="74" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="2.875" style="74" customWidth="1"/>
+    <col min="19" max="19" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="74" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="245" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="246"/>
+      <c r="C2" s="247" t="str">
+        <f>TestCaseList!E11</f>
+        <v>SP001</v>
+      </c>
+      <c r="D2" s="248"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="250" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="284" t="str">
+        <f>TestCaseList!D11</f>
+        <v>getTasks(req, res, next)</v>
+      </c>
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="286"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="251" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A4" s="251" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
+        <v>42</v>
+      </c>
+      <c r="D4" s="258"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="256" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="259">
+        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- N7),"N/A")</f>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="261"/>
+      <c r="U4" s="76"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="251" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A6" s="264" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="278" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="279"/>
+      <c r="M6" s="281"/>
+      <c r="N6" s="278" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="279"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="280"/>
+      <c r="U6" s="76"/>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="231">
+        <f>COUNTIF(F39:HP39,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
+        <f>COUNTIF(F39:HP39,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266">
+        <f>SUM(N7,- A7,- C7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="268"/>
+      <c r="K7" s="80">
+        <f>COUNTIF(E38:HP38,"N")</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="80">
+        <f>COUNTIF(E38:HP38,"A")</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E38:HP38,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="276">
+        <f>COUNTA(E9:HS9)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="277"/>
+      <c r="T7" s="81"/>
+    </row>
+    <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="85"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="122"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="124"/>
+      <c r="U11" s="76"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="124"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="124"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="124"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="210" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="124"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="195"/>
+      <c r="F16" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="124"/>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="195"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="124"/>
+    </row>
+    <row r="18" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="195"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="124"/>
+    </row>
+    <row r="19" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="195"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="124"/>
+    </row>
+    <row r="20" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="195"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="125"/>
+    </row>
+    <row r="21" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="124"/>
+    </row>
+    <row r="22" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="124"/>
+    </row>
+    <row r="23" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="124"/>
+    </row>
+    <row r="24" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="124"/>
+    </row>
+    <row r="25" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="127"/>
+    </row>
+    <row r="26" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A26" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="122"/>
+    </row>
+    <row r="27" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A27" s="116"/>
+      <c r="B27" s="211" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="122"/>
+    </row>
+    <row r="28" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A28" s="116"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="97">
+        <v>200</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="122"/>
+    </row>
+    <row r="29" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A29" s="116"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="97">
+        <v>401</v>
+      </c>
+      <c r="E29" s="98"/>
+      <c r="F29" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="122"/>
+    </row>
+    <row r="30" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A30" s="116"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="122"/>
+    </row>
+    <row r="31" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="209" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="122"/>
+    </row>
+    <row r="32" spans="1:20" ht="41.25" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="273" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="274"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="124"/>
+    </row>
+    <row r="33" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="128"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="124"/>
+    </row>
+    <row r="34" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="124"/>
+    </row>
+    <row r="35" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="128"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="124"/>
+    </row>
+    <row r="36" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="102"/>
+      <c r="F36" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="124"/>
+    </row>
+    <row r="37" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="130"/>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A38" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="269" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="269"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
+      <c r="Q38" s="131"/>
+      <c r="R38" s="131"/>
+      <c r="S38" s="132"/>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A39" s="116"/>
+      <c r="B39" s="270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="134"/>
+    </row>
+    <row r="40" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="271" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="108">
+        <v>39139</v>
+      </c>
+      <c r="G40" s="108">
+        <v>39139</v>
+      </c>
+      <c r="H40" s="108">
+        <v>39139</v>
+      </c>
+      <c r="I40" s="108">
+        <v>39139</v>
+      </c>
+      <c r="J40" s="108">
+        <v>39139</v>
+      </c>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="109"/>
+    </row>
+    <row r="41" spans="1:19" ht="11.25" thickBot="1">
+      <c r="A41" s="117"/>
+      <c r="B41" s="272" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="112"/>
+    </row>
+    <row r="42" spans="1:19" ht="11.25" thickTop="1">
+      <c r="A42" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:S38">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:S39">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:S37">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="74" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="75" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
     <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
@@ -9296,59 +10472,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="235" t="str">
-        <f>TestCaseList!E11</f>
-        <v>SP001</v>
-      </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="238" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="247" t="str">
+        <f>TestCaseList!E12</f>
+        <v>SP002</v>
+      </c>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="272" t="str">
-        <f>TestCaseList!D11</f>
-        <v>getTasks(shipperID)</v>
-      </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="274"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="287" t="str">
+        <f>TestCaseList!D12</f>
+        <v>getTaskBeIssuePending(req, res, next)</v>
+      </c>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
+      <c r="R2" s="288"/>
+      <c r="S2" s="288"/>
+      <c r="T2" s="289"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -9357,138 +10533,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
         <v>42</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="247">
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="266" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="266" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="281"/>
+      <c r="O6" s="278" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="267"/>
-      <c r="Q6" s="267"/>
-      <c r="R6" s="267"/>
-      <c r="S6" s="267"/>
-      <c r="T6" s="268"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="280"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221">
-        <f>COUNTIF(F41:HQ41,"P")</f>
+      <c r="A7" s="231">
+        <f>COUNTIF(F32:HQ32,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
-        <f>COUNTIF(F41:HQ41,"F")</f>
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
+        <f>COUNTIF(F32:HQ32,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254">
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="268"/>
       <c r="L7" s="80">
-        <f>COUNTIF(E40:HQ40,"N")</f>
+        <f>COUNTIF(E31:HQ31,"N")</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E31:HQ31,"A")</f>
         <v>3</v>
       </c>
-      <c r="M7" s="80">
-        <f>COUNTIF(E40:HQ40,"A")</f>
-        <v>2</v>
-      </c>
       <c r="N7" s="80">
-        <f>COUNTIF(E40:HQ40,"B")</f>
+        <f>COUNTIF(E31:HQ31,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="264">
+      <c r="O7" s="276">
         <f>COUNTA(E9:HT9)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="277"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -9646,15 +10822,13 @@
     </row>
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="86"/>
+      <c r="B15" s="210" t="s">
+        <v>175</v>
+      </c>
       <c r="C15" s="87"/>
-      <c r="D15" s="88" t="s">
-        <v>153</v>
-      </c>
+      <c r="D15" s="88"/>
       <c r="E15" s="195"/>
-      <c r="F15" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="F15" s="123"/>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
@@ -9673,15 +10847,17 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
+      <c r="C16" s="209" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" s="88" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E16" s="195"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123" t="s">
+      <c r="F16" s="123" t="s">
         <v>56</v>
       </c>
+      <c r="G16" s="123"/>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
       <c r="J16" s="123"/>
@@ -9699,16 +10875,18 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="200">
-        <v>9.9999999999999904E+23</v>
+      <c r="C17" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>178</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123" t="s">
+      <c r="G17" s="123" t="s">
         <v>56</v>
       </c>
+      <c r="H17" s="123"/>
       <c r="I17" s="123"/>
       <c r="J17" s="123"/>
       <c r="K17" s="123"/>
@@ -9721,21 +10899,24 @@
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
       <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="200">
-        <v>-9.9999999999999904E+23</v>
+      <c r="C18" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="200" t="s">
+        <v>179</v>
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123" t="s">
+      <c r="H18" s="123" t="s">
         <v>56</v>
       </c>
+      <c r="I18" s="123"/>
       <c r="J18" s="123"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
@@ -9751,18 +10932,20 @@
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="C19" s="209" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" s="88" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E19" s="195"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123" t="s">
+      <c r="I19" s="123" t="s">
         <v>56</v>
       </c>
+      <c r="J19" s="123"/>
       <c r="K19" s="123"/>
       <c r="L19" s="123"/>
       <c r="M19" s="123"/>
@@ -9777,14 +10960,20 @@
     <row r="20" spans="1:21" ht="13.5" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" s="195"/>
       <c r="F20" s="123"/>
       <c r="G20" s="123"/>
       <c r="H20" s="123"/>
       <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
+      <c r="J20" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="K20" s="123"/>
       <c r="L20" s="123"/>
       <c r="M20" s="123"/>
@@ -9795,58 +10984,63 @@
       <c r="R20" s="123"/>
       <c r="S20" s="123"/>
       <c r="T20" s="124"/>
-      <c r="U20" s="125"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="114"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="124"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="124"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="127"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A22" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="122"/>
     </row>
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="195"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="211" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="96"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="193"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -9864,11 +11058,13 @@
       <c r="T23" s="124"/>
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="195"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
@@ -9886,14 +11082,20 @@
       <c r="T24" s="124"/>
     </row>
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="195"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="100">
+        <v>200</v>
+      </c>
+      <c r="E25" s="102"/>
       <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
+      <c r="G25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="I25" s="123"/>
       <c r="J25" s="123"/>
       <c r="K25" s="123"/>
@@ -9908,16 +11110,24 @@
       <c r="T25" s="124"/>
     </row>
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="123"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="100">
+        <v>401</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
+      <c r="I26" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="K26" s="123"/>
       <c r="L26" s="123"/>
       <c r="M26" s="123"/>
@@ -9930,11 +11140,13 @@
       <c r="T26" s="124"/>
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="195"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="209" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="100"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="123"/>
       <c r="G27" s="123"/>
       <c r="H27" s="123"/>
@@ -9951,490 +11163,270 @@
       <c r="S27" s="123"/>
       <c r="T27" s="124"/>
     </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="114"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="127"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A29" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="122"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1">
+    <row r="28" spans="1:21" ht="51" customHeight="1">
+      <c r="A28" s="116"/>
+      <c r="B28" s="273" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="274"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="124"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A29" s="116"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="130"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="116"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="193"/>
-      <c r="F30" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="124"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="124"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="130"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A31" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="269" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="132"/>
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="193"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="124"/>
+      <c r="B32" s="270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="134"/>
     </row>
     <row r="33" spans="1:20" ht="13.5" customHeight="1">
       <c r="A33" s="116"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-    </row>
-    <row r="34" spans="1:20" ht="41.25" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="261" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="262"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="124"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="124"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="129"/>
-      <c r="T39" s="130"/>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A40" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="257" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="257"/>
-      <c r="D40" s="257"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="132"/>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="258" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="258"/>
-      <c r="D41" s="258"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="133"/>
-      <c r="R41" s="133"/>
-      <c r="S41" s="133"/>
-      <c r="T41" s="134"/>
-    </row>
-    <row r="42" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="259" t="s">
+      <c r="B33" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="259"/>
-      <c r="D42" s="259"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="108">
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="108">
         <v>39139</v>
       </c>
-      <c r="G42" s="108">
+      <c r="G33" s="108">
         <v>39139</v>
       </c>
-      <c r="H42" s="108">
-        <v>39139</v>
-      </c>
-      <c r="I42" s="108">
-        <v>39139</v>
-      </c>
-      <c r="J42" s="108">
-        <v>39139</v>
-      </c>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="109"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A43" s="117"/>
-      <c r="B43" s="260" t="s">
+      <c r="H33" s="108">
+        <v>39140</v>
+      </c>
+      <c r="I33" s="108">
+        <v>39141</v>
+      </c>
+      <c r="J33" s="108">
+        <v>39142</v>
+      </c>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="109"/>
+    </row>
+    <row r="34" spans="1:20" ht="11.25" thickBot="1">
+      <c r="A34" s="117"/>
+      <c r="B34" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="260"/>
-      <c r="D43" s="260"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="112"/>
-    </row>
-    <row r="44" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A44" s="135"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="112"/>
+    </row>
+    <row r="35" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A35" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+  <mergeCells count="29">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:T31">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:T41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:T32">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T30">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="74" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
     <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
@@ -10451,59 +11443,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="235" t="str">
-        <f>TestCaseList!E12</f>
-        <v>SP002</v>
-      </c>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="238" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="294" t="str">
+        <f>TestCaseList!E13</f>
+        <v>SP003</v>
+      </c>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="277" t="str">
-        <f>TestCaseList!D12</f>
-        <v>getTaskBeIssuePending(shipperID)</v>
-      </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="274"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="295" t="str">
+        <f>TestCaseList!D13</f>
+        <v>changeIsPending(req, res, next)</v>
+      </c>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="286"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -10512,138 +11504,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
-        <v>41</v>
-      </c>
-      <c r="D4" s="246"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
+        <v>119</v>
+      </c>
+      <c r="D4" s="258"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="278">
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="296">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-10.9</v>
-      </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="267" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="279" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="279"/>
+      <c r="P6" s="297"/>
+      <c r="Q6" s="297"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221">
-        <f>COUNTIF(F40:HQ40,"P")</f>
-        <v>12</v>
-      </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
+      <c r="A7" s="231">
+        <f>COUNTIF(F40:J40, "P")</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
         <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254">
+        <v>0</v>
+      </c>
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266">
         <f>SUM(O7,- A7,- C7)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="268"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M7" s="80">
         <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="80">
         <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="264">
+        <v>0</v>
+      </c>
+      <c r="O7" s="276">
         <f>COUNTA(E9:HT9)</f>
-        <v>15</v>
-      </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
+        <v>12</v>
+      </c>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="277"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -10689,15 +11681,9 @@
       <c r="Q9" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>20</v>
-      </c>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="141"/>
       <c r="U9" s="83"/>
       <c r="V9" s="84"/>
       <c r="W9" s="85"/>
@@ -10756,7 +11742,7 @@
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="123"/>
       <c r="G12" s="123"/>
       <c r="H12" s="123"/>
@@ -10775,10 +11761,12 @@
     </row>
     <row r="13" spans="1:23" ht="13.5" customHeight="1">
       <c r="A13" s="114"/>
-      <c r="B13" s="86"/>
+      <c r="B13" s="86" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="87"/>
       <c r="D13" s="88"/>
-      <c r="E13" s="90"/>
+      <c r="E13" s="195"/>
       <c r="F13" s="123"/>
       <c r="G13" s="123"/>
       <c r="H13" s="123"/>
@@ -10797,8 +11785,8 @@
     </row>
     <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="86" t="s">
-        <v>38</v>
+      <c r="B14" s="210" t="s">
+        <v>175</v>
       </c>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
@@ -10822,18 +11810,28 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="215" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="195"/>
-      <c r="F15" s="123"/>
+      <c r="F15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
+      <c r="J15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="K15" s="123"/>
       <c r="L15" s="123"/>
       <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
+      <c r="N15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="O15" s="123"/>
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
@@ -10844,19 +11842,29 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="195"/>
+      <c r="C16" s="215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="207"/>
       <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="G16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
       <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
+      <c r="K16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="L16" s="123"/>
       <c r="M16" s="123"/>
       <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
+      <c r="O16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="P16" s="123"/>
       <c r="Q16" s="123"/>
       <c r="R16" s="123"/>
@@ -10866,57 +11874,72 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="195"/>
+      <c r="C17" s="215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="207"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
+      <c r="H17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="123"/>
       <c r="J17" s="123"/>
       <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="L17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="M17" s="123"/>
       <c r="N17" s="123"/>
       <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
+      <c r="P17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="Q17" s="123"/>
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
       <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="195"/>
+      <c r="C18" s="215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="207"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="I18" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="J18" s="123"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
+      <c r="M18" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="N18" s="123"/>
       <c r="O18" s="123"/>
       <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
+      <c r="Q18" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="R18" s="123"/>
       <c r="S18" s="123"/>
       <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="207"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -10936,7 +11959,6 @@
     <row r="20" spans="1:21" ht="13.5" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
       <c r="D20" s="88"/>
       <c r="E20" s="195"/>
       <c r="F20" s="123"/>
@@ -10954,10 +11976,13 @@
       <c r="R20" s="123"/>
       <c r="S20" s="123"/>
       <c r="T20" s="124"/>
+      <c r="U20" s="125"/>
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1">
       <c r="A21" s="114"/>
-      <c r="B21" s="86"/>
+      <c r="B21" s="86" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="87"/>
       <c r="D21" s="88"/>
       <c r="E21" s="195"/>
@@ -10976,17 +12001,30 @@
       <c r="R21" s="123"/>
       <c r="S21" s="123"/>
       <c r="T21" s="124"/>
+      <c r="U21" s="125"/>
     </row>
     <row r="22" spans="1:21" ht="13.5" customHeight="1">
       <c r="A22" s="114"/>
       <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
+      <c r="C22" s="215" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="298" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="298"/>
+      <c r="F22" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="J22" s="123"/>
       <c r="K22" s="123"/>
       <c r="L22" s="123"/>
@@ -11002,17 +12040,29 @@
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="114"/>
       <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
+      <c r="C23" s="215" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="88">
+        <v>10</v>
+      </c>
       <c r="E23" s="195"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
+      <c r="J23" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="N23" s="123"/>
       <c r="O23" s="123"/>
       <c r="P23" s="123"/>
@@ -11024,8 +12074,12 @@
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="215" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>189</v>
+      </c>
       <c r="E24" s="195"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
@@ -11035,10 +12089,18 @@
       <c r="K24" s="123"/>
       <c r="L24" s="123"/>
       <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
+      <c r="N24" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="R24" s="123"/>
       <c r="S24" s="123"/>
       <c r="T24" s="124"/>
@@ -11363,11 +12425,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="257" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="194"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -11384,44 +12446,24 @@
       <c r="J39" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="132"/>
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -11438,42 +12480,24 @@
       <c r="J40" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
       <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
+      <c r="S40" s="133"/>
+      <c r="T40" s="134"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="259" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -11490,53 +12514,31 @@
       <c r="J41" s="108">
         <v>39142</v>
       </c>
-      <c r="K41" s="108">
-        <v>39143</v>
-      </c>
-      <c r="L41" s="108">
-        <v>39144</v>
-      </c>
-      <c r="M41" s="108">
-        <v>39145</v>
-      </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="109"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
+      <c r="K42" s="111"/>
       <c r="L42" s="111"/>
       <c r="M42" s="111"/>
       <c r="N42" s="111"/>
@@ -11551,19 +12553,12 @@
       <c r="A43" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
+  <mergeCells count="29">
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
@@ -11572,6 +12567,7 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
@@ -11580,6 +12576,13 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
@@ -11597,12 +12600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -11615,9 +12618,7 @@
     <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
     <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
+    <col min="11" max="21" width="2.875" style="74" customWidth="1"/>
     <col min="22" max="16384" width="8.875" style="74"/>
   </cols>
   <sheetData>
@@ -11625,60 +12626,60 @@
       <c r="A1" s="72"/>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="233" t="s">
+    <row r="2" spans="1:23" ht="24" customHeight="1">
+      <c r="A2" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="281" t="str">
-        <f>TestCaseList!E13</f>
-        <v>SP003</v>
-      </c>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="238" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="247" t="str">
+        <f>TestCaseList!E14</f>
+        <v>SP004</v>
+      </c>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="282" t="str">
-        <f>TestCaseList!D13</f>
-        <v>changeIsPending(shipperID, issueID)</v>
-      </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="274"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="295" t="str">
+        <f>TestCaseList!D14</f>
+        <v>createIssuePending(shipperID, newIssue, orders, categoryIssue)</v>
+      </c>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="286"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -11687,116 +12688,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
         <v>9</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="278">
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="296">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="267" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="279" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="279"/>
+      <c r="P6" s="297"/>
+      <c r="Q6" s="297"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254" t="e">
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="268"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -11809,15 +12810,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="264">
+      <c r="O7" s="276">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="277"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -11976,1178 +12977,6 @@
       </c>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="124"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="124"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="124"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="124"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="124"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="124"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="124"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="124"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="124"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="124"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="124"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="124"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="114"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="124"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="114"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="124"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="127"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A31" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="122"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="124"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="124"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A39" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="257" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="258" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="259" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="G41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="H41" s="108">
-        <v>39140</v>
-      </c>
-      <c r="I41" s="108">
-        <v>39141</v>
-      </c>
-      <c r="J41" s="108">
-        <v>39142</v>
-      </c>
-      <c r="K41" s="108">
-        <v>39143</v>
-      </c>
-      <c r="L41" s="108">
-        <v>39144</v>
-      </c>
-      <c r="M41" s="108">
-        <v>39145</v>
-      </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="260" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A43" s="135"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="2.875" style="74" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:23" ht="24" customHeight="1">
-      <c r="A2" s="233" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="235" t="str">
-        <f>TestCaseList!E14</f>
-        <v>SP004</v>
-      </c>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="238" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="282" t="str">
-        <f>TestCaseList!D14</f>
-        <v>createIssuePending(shipperID, newIssue, orders, categoryIssue)</v>
-      </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="274"/>
-      <c r="V2" s="76"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
-        <v>9</v>
-      </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="278">
-        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-14.1</v>
-      </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
-      <c r="V4" s="76"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="267" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="279" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="279"/>
-      <c r="V6" s="76"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
-        <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254" t="e">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="80">
-        <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>12</v>
-      </c>
-      <c r="M7" s="80">
-        <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="80">
-        <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="264">
-        <f>COUNTA(E9:HT9)</f>
-        <v>15</v>
-      </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="81"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="140" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="85"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="122"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="124"/>
-      <c r="V11" s="76"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="124"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="124"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
       <c r="E14" s="198"/>
       <c r="F14" s="123"/>
       <c r="G14" s="123"/>
@@ -13261,8 +13090,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -13709,11 +13538,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="257" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="197"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -13763,11 +13592,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -13815,11 +13644,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="259" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -13869,11 +13698,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -13972,59 +13801,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="245" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="281" t="str">
+      <c r="B2" s="246"/>
+      <c r="C2" s="294" t="str">
         <f>TestCaseList!E15</f>
         <v>SP005</v>
       </c>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="238" t="s">
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="282" t="str">
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="295" t="str">
         <f>TestCaseList!D15</f>
         <v>createIssueDisconnect(shipperID)</v>
       </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="274"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="286"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -14033,116 +13862,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="251" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="257">
         <v>9</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="278">
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="296">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="249"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="250" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
-      <c r="T5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="262" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="267" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="279" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="279"/>
+      <c r="P6" s="297"/>
+      <c r="Q6" s="297"/>
+      <c r="R6" s="297"/>
+      <c r="S6" s="297"/>
+      <c r="T6" s="297"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="254">
+      <c r="B7" s="232"/>
+      <c r="C7" s="266">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="254" t="e">
+      <c r="D7" s="267"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="266" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="256"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="268"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -14155,15 +13984,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="264">
+      <c r="O7" s="276">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="265"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="277"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -14435,8 +14264,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -14883,11 +14712,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="257" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="257"/>
-      <c r="D39" s="257"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="203"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -14937,11 +14766,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -14989,11 +14818,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="259" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -15043,11 +14872,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -15077,11 +14906,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -15092,6 +14916,11 @@
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>

--- a/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
+++ b/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="203">
   <si>
     <t>&lt;Date when this test report is created&gt;</t>
   </si>
@@ -1077,18 +1077,9 @@
     <t>Store request cancel Order</t>
   </si>
   <si>
-    <t>getTasks(req, res, next)</t>
-  </si>
-  <si>
     <t>req</t>
   </si>
   <si>
-    <t>req.user</t>
-  </si>
-  <si>
-    <t>req.user.username</t>
-  </si>
-  <si>
     <t>"SP000001"</t>
   </si>
   <si>
@@ -1101,28 +1092,76 @@
     <t>res</t>
   </si>
   <si>
-    <t>res.status</t>
-  </si>
-  <si>
     <t>UnauthorizedError</t>
   </si>
   <si>
-    <t>req.data</t>
-  </si>
-  <si>
     <t>"ST000001"</t>
   </si>
   <si>
-    <t>getTaskBeIssuePending(req, res, next)</t>
-  </si>
-  <si>
-    <t>changeIsPending(req, res, next)</t>
-  </si>
-  <si>
-    <t>req.body.issueId</t>
-  </si>
-  <si>
-    <t>^$#@@$@!(*_</t>
+    <t>ownerStoreUser</t>
+  </si>
+  <si>
+    <t>storeID</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>Input3</t>
+  </si>
+  <si>
+    <t>ST000001</t>
+  </si>
+  <si>
+    <t>$%@@#@(*</t>
+  </si>
+  <si>
+    <t>STR001</t>
+  </si>
+  <si>
+    <t>OD666121</t>
+  </si>
+  <si>
+    <t>UTCID010</t>
+  </si>
+  <si>
+    <t>UTCID011</t>
+  </si>
+  <si>
+    <t>shipperID</t>
+  </si>
+  <si>
+    <t>SP000001</t>
+  </si>
+  <si>
+    <t>AD000001</t>
+  </si>
+  <si>
+    <t>Input4</t>
+  </si>
+  <si>
+    <t>changeIsPending(shipperid, issueId)</t>
+  </si>
+  <si>
+    <t>shipperid</t>
+  </si>
+  <si>
+    <t>issueId</t>
+  </si>
+  <si>
+    <t>newIssue</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>categoryIssue</t>
+  </si>
+  <si>
+    <t>getTaskBeIssuePending(shipperid)</t>
+  </si>
+  <si>
+    <t>getTasks(shipperid)</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1172,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1510,6 +1549,19 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2865,7 +2917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3441,6 +3493,18 @@
     <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3568,6 +3632,81 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="84" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3577,81 +3716,6 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="84" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3687,6 +3751,12 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3884,7 +3954,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4646,7 +4718,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-77C5-41FF-9711-8D3631D3D375}"/>
                 </c:ext>
@@ -4684,7 +4758,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5997,10 +6073,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -6024,59 +6100,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="294" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="298" t="str">
         <f>TestCaseList!E16</f>
         <v>SP006</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="295" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="299" t="str">
         <f>TestCaseList!D16</f>
         <v>cancelOrder(ownerStoreUser, storeID, orderID)</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -6085,137 +6161,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
-        <v>9</v>
-      </c>
-      <c r="D4" s="258"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
+        <v>60</v>
+      </c>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="296">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="300">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-14.1</v>
-      </c>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+        <v>-6</v>
+      </c>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="289"/>
+      <c r="T4" s="290"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="297" t="s">
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="301" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="301"/>
+      <c r="T6" s="301"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
-        <f>COUNTIF(F40:HQ40,"F")</f>
+      <c r="A7" s="235">
+        <f>COUNTIF(F43:T43,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
+        <f>COUNTIF(F43:HQ43,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266" t="e">
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
       <c r="L7" s="80">
-        <f>COUNTIF(E39:HQ39,"N")</f>
+        <f>COUNTIF(E42:HQ42,"N")</f>
+        <v>7</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E42:HQ42,"A")</f>
+        <v>5</v>
+      </c>
+      <c r="N7" s="80">
+        <f>COUNTIF(E42:HQ42,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="277">
+        <f>COUNTA(E9:HT9)</f>
         <v>12</v>
       </c>
-      <c r="M7" s="80">
-        <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="80">
-        <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="276">
-        <f>COUNTA(E9:HT9)</f>
-        <v>15</v>
-      </c>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="277"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="278"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -6253,23 +6330,17 @@
         <v>14</v>
       </c>
       <c r="O9" s="140" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="P9" s="140" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>20</v>
-      </c>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="141"/>
       <c r="U9" s="83"/>
       <c r="V9" s="84"/>
       <c r="W9" s="85"/>
@@ -6369,7 +6440,7 @@
     </row>
     <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="216" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="87"/>
@@ -6394,19 +6465,31 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="209" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="205"/>
-      <c r="F15" s="123"/>
+      <c r="F15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
+      <c r="I15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="J15" s="123"/>
       <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
+      <c r="L15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="M15" s="123"/>
       <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
+      <c r="O15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
       <c r="R15" s="123"/>
@@ -6416,20 +6499,32 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="205"/>
+      <c r="C16" s="209" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="217"/>
       <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="G16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
+      <c r="J16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="K16" s="123"/>
       <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
+      <c r="M16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="N16" s="123"/>
       <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
+      <c r="P16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="Q16" s="123"/>
       <c r="R16" s="123"/>
       <c r="S16" s="123"/>
@@ -6438,31 +6533,40 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="205"/>
+      <c r="C17" s="209" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="217"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
+      <c r="H17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="123"/>
       <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
+      <c r="K17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="L17" s="123"/>
       <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
+      <c r="N17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="O17" s="123"/>
       <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
+      <c r="Q17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
       <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="86" t="s">
-        <v>39</v>
-      </c>
+      <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="88"/>
       <c r="E18" s="205"/>
@@ -6481,14 +6585,15 @@
       <c r="R18" s="123"/>
       <c r="S18" s="123"/>
       <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="216" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="87"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -6504,44 +6609,77 @@
       <c r="R19" s="123"/>
       <c r="S19" s="123"/>
       <c r="T19" s="124"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="U19" s="125"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
+      <c r="C20" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="I20" s="123"/>
       <c r="J20" s="123"/>
       <c r="K20" s="123"/>
       <c r="L20" s="123"/>
       <c r="M20" s="123"/>
       <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
+      <c r="O20" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="R20" s="123"/>
       <c r="S20" s="123"/>
       <c r="T20" s="124"/>
     </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="114"/>
       <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="205"/>
+      <c r="C21" s="219" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="88"/>
       <c r="F21" s="123"/>
       <c r="G21" s="123"/>
       <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
+      <c r="I21" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="O21" s="123"/>
       <c r="P21" s="123"/>
       <c r="Q21" s="123"/>
@@ -6549,12 +6687,12 @@
       <c r="S21" s="123"/>
       <c r="T21" s="124"/>
     </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="A22" s="114"/>
       <c r="B22" s="86"/>
       <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="205"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
@@ -6574,7 +6712,7 @@
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="114"/>
       <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="88"/>
       <c r="E23" s="205"/>
       <c r="F23" s="123"/>
@@ -6595,7 +6733,9 @@
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="216" t="s">
+        <v>184</v>
+      </c>
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
       <c r="E24" s="205"/>
@@ -6618,15 +6758,31 @@
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="114"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="209" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>153</v>
+      </c>
       <c r="E25" s="205"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
+      <c r="F25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="L25" s="123"/>
       <c r="M25" s="123"/>
       <c r="N25" s="123"/>
@@ -6640,8 +6796,12 @@
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
       <c r="A26" s="114"/>
       <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="209" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="88" t="s">
+        <v>188</v>
+      </c>
       <c r="E26" s="205"/>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
@@ -6649,12 +6809,24 @@
       <c r="I26" s="123"/>
       <c r="J26" s="123"/>
       <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
+      <c r="L26" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="R26" s="123"/>
       <c r="S26" s="123"/>
       <c r="T26" s="124"/>
@@ -6662,7 +6834,7 @@
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="114"/>
       <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="88"/>
       <c r="E27" s="205"/>
       <c r="F27" s="123"/>
@@ -6725,60 +6897,56 @@
       <c r="S29" s="123"/>
       <c r="T29" s="124"/>
     </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:21" ht="13.5" customHeight="1">
       <c r="A30" s="114"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="127"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A31" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="122"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="124"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A31" s="114"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="124"/>
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="204"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="205"/>
       <c r="F32" s="123"/>
       <c r="G32" s="123"/>
       <c r="H32" s="123"/>
@@ -6795,58 +6963,60 @@
       <c r="S32" s="123"/>
       <c r="T32" s="124"/>
     </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A33" s="114"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="127"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A34" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="122"/>
     </row>
     <row r="35" spans="1:20" ht="13.5" customHeight="1">
       <c r="A35" s="116"/>
       <c r="B35" s="101"/>
-      <c r="C35" s="128"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
+      <c r="E35" s="204"/>
       <c r="F35" s="123"/>
       <c r="G35" s="123"/>
       <c r="H35" s="123"/>
@@ -6865,9 +7035,7 @@
     </row>
     <row r="36" spans="1:20" ht="13.5" customHeight="1">
       <c r="A36" s="116"/>
-      <c r="B36" s="101" t="s">
-        <v>42</v>
-      </c>
+      <c r="B36" s="101"/>
       <c r="C36" s="128"/>
       <c r="D36" s="100"/>
       <c r="E36" s="102"/>
@@ -6889,7 +7057,9 @@
     </row>
     <row r="37" spans="1:20" ht="13.5" customHeight="1">
       <c r="A37" s="116"/>
-      <c r="B37" s="101"/>
+      <c r="B37" s="101" t="s">
+        <v>41</v>
+      </c>
       <c r="C37" s="128"/>
       <c r="D37" s="100"/>
       <c r="E37" s="102"/>
@@ -6909,226 +7079,267 @@
       <c r="S37" s="123"/>
       <c r="T37" s="124"/>
     </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A39" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="269" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
+      <c r="B38" s="101"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="124"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A39" s="116"/>
+      <c r="B39" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="128"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="124"/>
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="270" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="124"/>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="130"/>
+    </row>
+    <row r="42" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A42" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="270" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="270"/>
+      <c r="D42" s="270"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="131"/>
+      <c r="S42" s="131"/>
+      <c r="T42" s="132"/>
+    </row>
+    <row r="43" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A43" s="116"/>
+      <c r="B43" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="133" t="s">
+      <c r="C43" s="271"/>
+      <c r="D43" s="271"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="133" t="s">
+      <c r="G43" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="133" t="s">
+      <c r="H43" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="133" t="s">
+      <c r="I43" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="133" t="s">
+      <c r="J43" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="133" t="s">
+      <c r="K43" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="133" t="s">
+      <c r="L43" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="M40" s="133" t="s">
+      <c r="M43" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="271" t="s">
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="133"/>
+      <c r="R43" s="133"/>
+      <c r="S43" s="133"/>
+      <c r="T43" s="134"/>
+    </row>
+    <row r="44" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A44" s="116"/>
+      <c r="B44" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="108">
+      <c r="C44" s="272"/>
+      <c r="D44" s="272"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="108">
         <v>39139</v>
       </c>
-      <c r="G41" s="108">
+      <c r="G44" s="108">
         <v>39139</v>
       </c>
-      <c r="H41" s="108">
+      <c r="H44" s="108">
         <v>39140</v>
       </c>
-      <c r="I41" s="108">
+      <c r="I44" s="108">
         <v>39141</v>
       </c>
-      <c r="J41" s="108">
+      <c r="J44" s="108">
         <v>39142</v>
       </c>
-      <c r="K41" s="108">
+      <c r="K44" s="108">
         <v>39143</v>
       </c>
-      <c r="L41" s="108">
+      <c r="L44" s="108">
         <v>39144</v>
       </c>
-      <c r="M41" s="108">
+      <c r="M44" s="108">
         <v>39145</v>
       </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="272" t="s">
+      <c r="N44" s="108">
+        <v>39145</v>
+      </c>
+      <c r="O44" s="108">
+        <v>39145</v>
+      </c>
+      <c r="P44" s="108">
+        <v>39145</v>
+      </c>
+      <c r="Q44" s="108">
+        <v>39145</v>
+      </c>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="109"/>
+    </row>
+    <row r="45" spans="1:20" ht="11.25" thickBot="1">
+      <c r="A45" s="117"/>
+      <c r="B45" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A43" s="135"/>
+      <c r="C45" s="273"/>
+      <c r="D45" s="273"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="112"/>
+    </row>
+    <row r="46" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A46" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+  <mergeCells count="27">
     <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -7154,13 +7365,13 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:T42">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:T43">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T41">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -7198,58 +7409,58 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="247" t="s">
+      <c r="B2" s="250"/>
+      <c r="C2" s="251" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="252"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="295" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="299" t="str">
         <f>TestCaseList!D15</f>
         <v>createIssueDisconnect(shipperID)</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -7258,116 +7469,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
         <v>9</v>
       </c>
-      <c r="D4" s="258"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="296">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="300">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="289"/>
+      <c r="T4" s="290"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="297" t="s">
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="301" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="301"/>
+      <c r="T6" s="301"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266" t="e">
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -7380,15 +7591,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="276">
+      <c r="O7" s="277">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="277"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="278"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -7660,8 +7871,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -8108,11 +8319,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="269" t="s">
+      <c r="B39" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
       <c r="E39" s="158"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -8162,11 +8373,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="270" t="s">
+      <c r="B40" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -8214,11 +8425,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="271" t="s">
+      <c r="B41" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -8268,11 +8479,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="272" t="s">
+      <c r="B42" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="273"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -8373,13 +8584,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="143" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="142"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="144"/>
@@ -8390,11 +8601,11 @@
       <c r="A4" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="221" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="160" t="s">
         <v>89</v>
       </c>
@@ -8406,11 +8617,11 @@
       <c r="A5" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
       <c r="E5" s="160" t="s">
         <v>92</v>
       </c>
@@ -8419,14 +8630,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="222" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
       <c r="E6" s="160" t="s">
         <v>94</v>
       </c>
@@ -8435,10 +8646,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="218"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
       <c r="E7" s="160" t="s">
         <v>95</v>
       </c>
@@ -8585,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -8620,41 +8831,41 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="225" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="222" t="s">
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="224"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="228"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="222" t="str">
+      <c r="B5" s="225"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="226" t="str">
         <f>Cover!B5</f>
         <v>AKP</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="224"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="228"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="232" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="190">
         <v>100</v>
       </c>
@@ -8663,18 +8874,18 @@
       <c r="H6" s="192"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="225" t="s">
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="229" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="227"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="231"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -8729,7 +8940,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="189" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>156</v>
@@ -8747,7 +8958,7 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>157</v>
@@ -8765,7 +8976,7 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="202" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E13" s="201" t="s">
         <v>158</v>
@@ -8824,7 +9035,7 @@
       <c r="E16" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="27" t="s">
         <v>168</v>
       </c>
       <c r="G16" s="29"/>
@@ -8913,6 +9124,8 @@
     <hyperlink ref="F12" location="Function2!A1" display="Function2"/>
     <hyperlink ref="F13" location="Function3!A1" display="Function3"/>
     <hyperlink ref="F14" location="Function4!A1" display="Funtion4"/>
+    <hyperlink ref="F16" location="Function6!A1" display="Function6"/>
+    <hyperlink ref="F15" location="Function5!A1" display="Function5"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8948,17 +9161,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -8975,65 +9188,65 @@
       <c r="A4" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="239" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236" t="s">
+      <c r="C4" s="239"/>
+      <c r="D4" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="236"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="239"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="236" t="s">
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="236"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="239"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="243"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="236"/>
-      <c r="F6" s="240" t="s">
+      <c r="E6" s="240"/>
+      <c r="F6" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="242"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="246"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="233" t="s">
+      <c r="B7" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="237"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -9163,8 +9376,8 @@
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="45"/>
       <c r="B14" s="196"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="236"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46"/>
@@ -9346,10 +9559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -9373,57 +9586,57 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="247" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="251" t="str">
         <f>TestCaseList!E11</f>
         <v>SP001</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="252"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="284" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="285" t="str">
         <f>TestCaseList!D11</f>
-        <v>getTasks(req, res, next)</v>
-      </c>
-      <c r="L2" s="285"/>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="286"/>
+        <v>getTasks(shipperid)</v>
+      </c>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="287"/>
       <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
       <c r="N3" s="77"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
@@ -9432,134 +9645,134 @@
       <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
         <v>42</v>
       </c>
-      <c r="D4" s="258"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="259">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="288">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- N7),"N/A")</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="261"/>
+      <c r="L4" s="289"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="290"/>
       <c r="U4" s="76"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="266"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="278" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="281"/>
-      <c r="N6" s="278" t="s">
+      <c r="L6" s="280"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="279"/>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="281"/>
       <c r="U6" s="76"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231">
-        <f>COUNTIF(F39:HP39,"P")</f>
+      <c r="A7" s="235">
+        <f>COUNTIF(F37:HP37,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
-        <f>COUNTIF(F39:HP39,"F")</f>
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
+        <f>COUNTIF(F37:HP37,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266">
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263">
         <f>SUM(N7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="268"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="265"/>
       <c r="K7" s="80">
-        <f>COUNTIF(E38:HP38,"N")</f>
+        <f>COUNTIF(E36:HP36,"N")</f>
         <v>2</v>
       </c>
       <c r="L7" s="80">
-        <f>COUNTIF(E38:HP38,"A")</f>
+        <f>COUNTIF(E36:HP36,"A")</f>
         <v>3</v>
       </c>
       <c r="M7" s="80">
-        <f>COUNTIF(E38:HP38,"B")</f>
+        <f>COUNTIF(E36:HP36,"B")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="276">
+      <c r="N7" s="277">
         <f>COUNTA(E9:HS9)</f>
         <v>5</v>
       </c>
-      <c r="O7" s="267"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="277"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="278"/>
       <c r="T7" s="81"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9711,9 +9924,7 @@
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="210" t="s">
-        <v>175</v>
-      </c>
+      <c r="B15" s="210"/>
       <c r="C15" s="87"/>
       <c r="D15" s="88"/>
       <c r="E15" s="195"/>
@@ -9736,7 +9947,7 @@
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
       <c r="C16" s="209" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D16" s="88" t="s">
         <v>153</v>
@@ -9763,10 +9974,10 @@
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
       <c r="C17" s="209" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D17" s="208" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="123"/>
@@ -9790,10 +10001,10 @@
       <c r="A18" s="114"/>
       <c r="B18" s="86"/>
       <c r="C18" s="209" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="123"/>
@@ -9817,10 +10028,10 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="209" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="88" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>180</v>
       </c>
       <c r="E19" s="195"/>
       <c r="F19" s="123"/>
@@ -9844,10 +10055,10 @@
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
       <c r="C20" s="209" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E20" s="195"/>
       <c r="F20" s="123"/>
@@ -10000,9 +10211,7 @@
     </row>
     <row r="27" spans="1:20" ht="13.5" customHeight="1">
       <c r="A27" s="116"/>
-      <c r="B27" s="211" t="s">
-        <v>181</v>
-      </c>
+      <c r="B27" s="96"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
       <c r="E27" s="98"/>
@@ -10023,21 +10232,13 @@
     </row>
     <row r="28" spans="1:20" ht="13.5" customHeight="1">
       <c r="A28" s="116"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="97">
-        <v>200</v>
-      </c>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="98"/>
       <c r="F28" s="121"/>
-      <c r="G28" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="121" t="s">
-        <v>56</v>
-      </c>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="121"/>
       <c r="J28" s="121"/>
       <c r="K28" s="121"/>
@@ -10052,23 +10253,15 @@
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1">
       <c r="A29" s="116"/>
-      <c r="B29" s="243"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="97">
-        <v>401</v>
-      </c>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="98"/>
-      <c r="F29" s="121" t="s">
-        <v>56</v>
-      </c>
+      <c r="F29" s="121"/>
       <c r="G29" s="121"/>
       <c r="H29" s="121"/>
-      <c r="I29" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="121" t="s">
-        <v>56</v>
-      </c>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="121"/>
       <c r="L29" s="121"/>
       <c r="M29" s="121"/>
@@ -10079,65 +10272,65 @@
       <c r="R29" s="121"/>
       <c r="S29" s="122"/>
     </row>
-    <row r="30" spans="1:20" ht="13.5" customHeight="1">
+    <row r="30" spans="1:20" ht="41.25" customHeight="1">
       <c r="A30" s="116"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="122"/>
+      <c r="B30" s="274" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="275"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="124"/>
     </row>
     <row r="31" spans="1:20" ht="13.5" customHeight="1">
       <c r="A31" s="116"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="209" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="122"/>
-    </row>
-    <row r="32" spans="1:20" ht="41.25" customHeight="1">
+      <c r="B31" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="128"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="124"/>
+    </row>
+    <row r="32" spans="1:20" ht="13.5" customHeight="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="273" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="274"/>
-      <c r="D32" s="275"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="102"/>
       <c r="F32" s="123"/>
-      <c r="G32" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
       <c r="I32" s="123"/>
       <c r="J32" s="123"/>
       <c r="K32" s="123"/>
@@ -10153,7 +10346,7 @@
     <row r="33" spans="1:19" ht="13.5" customHeight="1">
       <c r="A33" s="116"/>
       <c r="B33" s="101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="128"/>
       <c r="D33" s="100"/>
@@ -10177,13 +10370,21 @@
       <c r="A34" s="116"/>
       <c r="B34" s="101"/>
       <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
+      <c r="D34" s="303" t="s">
+        <v>179</v>
+      </c>
       <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
+      <c r="F34" s="304" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="123"/>
       <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
+      <c r="I34" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="K34" s="123"/>
       <c r="L34" s="123"/>
       <c r="M34" s="123"/>
@@ -10194,225 +10395,169 @@
       <c r="R34" s="123"/>
       <c r="S34" s="124"/>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1">
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
       <c r="A35" s="116"/>
-      <c r="B35" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="124"/>
-    </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="124"/>
-    </row>
-    <row r="37" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="130"/>
+    </row>
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A36" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="270" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="270"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="132"/>
+    </row>
+    <row r="37" spans="1:19" ht="13.5" customHeight="1">
       <c r="A37" s="116"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="130"/>
-    </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A38" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="269" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="269"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="132"/>
-    </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="270" t="s">
+      <c r="B37" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="133" t="s">
+      <c r="C37" s="271"/>
+      <c r="D37" s="271"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="133" t="s">
+      <c r="G37" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="133" t="s">
+      <c r="H37" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="133" t="s">
+      <c r="I37" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="133" t="s">
+      <c r="J37" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="134"/>
-    </row>
-    <row r="40" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="271" t="s">
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="134"/>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="108">
+      <c r="C38" s="272"/>
+      <c r="D38" s="272"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="108">
         <v>39139</v>
       </c>
-      <c r="G40" s="108">
+      <c r="G38" s="108">
         <v>39139</v>
       </c>
-      <c r="H40" s="108">
+      <c r="H38" s="108">
         <v>39139</v>
       </c>
-      <c r="I40" s="108">
+      <c r="I38" s="108">
         <v>39139</v>
       </c>
-      <c r="J40" s="108">
+      <c r="J38" s="108">
         <v>39139</v>
       </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="109"/>
-    </row>
-    <row r="41" spans="1:19" ht="11.25" thickBot="1">
-      <c r="A41" s="117"/>
-      <c r="B41" s="272" t="s">
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="109"/>
+    </row>
+    <row r="39" spans="1:19" ht="11.25" thickBot="1">
+      <c r="A39" s="117"/>
+      <c r="B39" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
-      <c r="P41" s="111"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="112"/>
-    </row>
-    <row r="42" spans="1:19" ht="11.25" thickTop="1">
-      <c r="A42" s="135"/>
+      <c r="C39" s="273"/>
+      <c r="D39" s="273"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="112"/>
+    </row>
+    <row r="40" spans="1:19" ht="11.25" thickTop="1">
+      <c r="A40" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -10425,15 +10570,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:S38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36:S36">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:S39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:S37">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:S37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:S35">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10448,7 +10596,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -10472,59 +10620,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="247" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="251" t="str">
         <f>TestCaseList!E12</f>
         <v>SP002</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="287" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="291" t="str">
         <f>TestCaseList!D12</f>
-        <v>getTaskBeIssuePending(req, res, next)</v>
-      </c>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
-      <c r="P2" s="288"/>
-      <c r="Q2" s="288"/>
-      <c r="R2" s="288"/>
-      <c r="S2" s="288"/>
-      <c r="T2" s="289"/>
+        <v>getTaskBeIssuePending(shipperid)</v>
+      </c>
+      <c r="M2" s="292"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="292"/>
+      <c r="S2" s="292"/>
+      <c r="T2" s="293"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="284"/>
+      <c r="N3" s="284"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -10533,117 +10681,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
         <v>42</v>
       </c>
-      <c r="D4" s="258"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="259">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="288">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="289"/>
+      <c r="T4" s="290"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="278" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="278" t="s">
+      <c r="M6" s="280"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="281"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231">
+      <c r="A7" s="235">
         <f>COUNTIF(F32:HQ32,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F32:HQ32,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266">
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
       <c r="L7" s="80">
         <f>COUNTIF(E31:HQ31,"N")</f>
         <v>2</v>
@@ -10656,15 +10804,15 @@
         <f>COUNTIF(E31:HQ31,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="276">
+      <c r="O7" s="277">
         <f>COUNTA(E9:HT9)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="277"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="278"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -10823,7 +10971,7 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="87"/>
       <c r="D15" s="88"/>
@@ -10848,7 +10996,7 @@
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
       <c r="C16" s="209" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D16" s="88" t="s">
         <v>153</v>
@@ -10876,10 +11024,10 @@
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
       <c r="C17" s="209" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D17" s="208" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="123"/>
@@ -10905,10 +11053,10 @@
       <c r="A18" s="114"/>
       <c r="B18" s="86"/>
       <c r="C18" s="209" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="123"/>
@@ -10933,10 +11081,10 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="209" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="88" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>180</v>
       </c>
       <c r="E19" s="195"/>
       <c r="F19" s="123"/>
@@ -10961,10 +11109,10 @@
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
       <c r="C20" s="209" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E20" s="195"/>
       <c r="F20" s="123"/>
@@ -11036,7 +11184,7 @@
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="116"/>
       <c r="B23" s="211" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="96"/>
       <c r="D23" s="100"/>
@@ -11060,9 +11208,7 @@
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="116"/>
       <c r="B24" s="95"/>
-      <c r="C24" s="209" t="s">
-        <v>182</v>
-      </c>
+      <c r="C24" s="96"/>
       <c r="D24" s="100"/>
       <c r="E24" s="102"/>
       <c r="F24" s="123"/>
@@ -11083,19 +11229,13 @@
     </row>
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="116"/>
-      <c r="B25" s="243"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="100">
-        <v>200</v>
-      </c>
+      <c r="B25" s="247"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="102"/>
       <c r="F25" s="123"/>
-      <c r="G25" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
       <c r="I25" s="123"/>
       <c r="J25" s="123"/>
       <c r="K25" s="123"/>
@@ -11113,21 +11253,13 @@
       <c r="A26" s="116"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
-      <c r="D26" s="100">
-        <v>401</v>
-      </c>
+      <c r="D26" s="100"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="F26" s="123"/>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
-      <c r="I26" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
       <c r="K26" s="123"/>
       <c r="L26" s="123"/>
       <c r="M26" s="123"/>
@@ -11142,9 +11274,7 @@
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="116"/>
       <c r="B27" s="95"/>
-      <c r="C27" s="209" t="s">
-        <v>184</v>
-      </c>
+      <c r="C27" s="96"/>
       <c r="D27" s="100"/>
       <c r="E27" s="102"/>
       <c r="F27" s="123"/>
@@ -11165,11 +11295,11 @@
     </row>
     <row r="28" spans="1:21" ht="51" customHeight="1">
       <c r="A28" s="116"/>
-      <c r="B28" s="273" t="s">
+      <c r="B28" s="274" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="274"/>
-      <c r="D28" s="275"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="276"/>
       <c r="E28" s="206"/>
       <c r="F28" s="123"/>
       <c r="G28" s="123" t="s">
@@ -11239,11 +11369,11 @@
       <c r="A31" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="269" t="s">
+      <c r="B31" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="270"/>
       <c r="E31" s="194"/>
       <c r="F31" s="131" t="s">
         <v>24</v>
@@ -11273,11 +11403,11 @@
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="270" t="s">
+      <c r="B32" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
       <c r="E32" s="107"/>
       <c r="F32" s="133" t="s">
         <v>26</v>
@@ -11307,11 +11437,11 @@
     </row>
     <row r="33" spans="1:20" ht="13.5" customHeight="1">
       <c r="A33" s="116"/>
-      <c r="B33" s="271" t="s">
+      <c r="B33" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
       <c r="E33" s="102"/>
       <c r="F33" s="108">
         <v>39139</v>
@@ -11341,11 +11471,11 @@
     </row>
     <row r="34" spans="1:20" ht="11.25" thickBot="1">
       <c r="A34" s="117"/>
-      <c r="B34" s="272" t="s">
+      <c r="B34" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="273"/>
       <c r="E34" s="110"/>
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
@@ -11398,7 +11528,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:T31">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
@@ -11418,8 +11548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -11443,59 +11573,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="294" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="298" t="str">
         <f>TestCaseList!E13</f>
         <v>SP003</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="295" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="299" t="str">
         <f>TestCaseList!D13</f>
-        <v>changeIsPending(req, res, next)</v>
-      </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="286"/>
+        <v>changeIsPending(shipperid, issueId)</v>
+      </c>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -11504,117 +11634,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
         <v>119</v>
       </c>
-      <c r="D4" s="258"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="296">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="300">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="289"/>
+      <c r="T4" s="290"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="297" t="s">
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="301" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="301"/>
+      <c r="T6" s="301"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231">
+      <c r="A7" s="235">
         <f>COUNTIF(F40:J40, "P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266">
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
         <v>7</v>
       </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>5</v>
@@ -11627,15 +11757,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="276">
+      <c r="O7" s="277">
         <f>COUNTA(E9:HT9)</f>
         <v>12</v>
       </c>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="277"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="278"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -11785,9 +11915,7 @@
     </row>
     <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="210" t="s">
-        <v>175</v>
-      </c>
+      <c r="B14" s="210"/>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
       <c r="E14" s="195"/>
@@ -11811,27 +11939,19 @@
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
       <c r="C15" s="215" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>153</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D15" s="88"/>
       <c r="E15" s="195"/>
-      <c r="F15" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="F15" s="123"/>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
-      <c r="J15" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="J15" s="123"/>
       <c r="K15" s="123"/>
       <c r="L15" s="123"/>
       <c r="M15" s="123"/>
-      <c r="N15" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="N15" s="123"/>
       <c r="O15" s="123"/>
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
@@ -11843,28 +11963,20 @@
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
       <c r="C16" s="215" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>178</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D16" s="88"/>
       <c r="E16" s="207"/>
       <c r="F16" s="123"/>
-      <c r="G16" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="G16" s="123"/>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
       <c r="J16" s="123"/>
-      <c r="K16" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="K16" s="123"/>
       <c r="L16" s="123"/>
       <c r="M16" s="123"/>
       <c r="N16" s="123"/>
-      <c r="O16" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="O16" s="123"/>
       <c r="P16" s="123"/>
       <c r="Q16" s="123"/>
       <c r="R16" s="123"/>
@@ -11874,30 +11986,20 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="215" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>180</v>
-      </c>
+      <c r="C17" s="215"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="207"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
-      <c r="H17" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="H17" s="123"/>
       <c r="I17" s="123"/>
       <c r="J17" s="123"/>
       <c r="K17" s="123"/>
-      <c r="L17" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="L17" s="123"/>
       <c r="M17" s="123"/>
       <c r="N17" s="123"/>
       <c r="O17" s="123"/>
-      <c r="P17" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="P17" s="123"/>
       <c r="Q17" s="123"/>
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
@@ -11905,39 +12007,29 @@
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="C18" s="215" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>185</v>
-      </c>
+      <c r="C18" s="215"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="207"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
-      <c r="I18" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="I18" s="123"/>
       <c r="J18" s="123"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
-      <c r="M18" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="M18" s="123"/>
       <c r="N18" s="123"/>
       <c r="O18" s="123"/>
       <c r="P18" s="123"/>
-      <c r="Q18" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q18" s="123"/>
       <c r="R18" s="123"/>
       <c r="S18" s="123"/>
       <c r="T18" s="124"/>
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="293"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="297"/>
       <c r="D19" s="88"/>
       <c r="E19" s="207"/>
       <c r="F19" s="123"/>
@@ -12007,24 +12099,14 @@
       <c r="A22" s="114"/>
       <c r="B22" s="86"/>
       <c r="C22" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="298" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="298"/>
-      <c r="F22" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="123" t="s">
-        <v>56</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D22" s="302"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
       <c r="J22" s="123"/>
       <c r="K22" s="123"/>
       <c r="L22" s="123"/>
@@ -12041,28 +12123,18 @@
       <c r="A23" s="114"/>
       <c r="B23" s="86"/>
       <c r="C23" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="88">
-        <v>10</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D23" s="88"/>
       <c r="E23" s="195"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
-      <c r="J23" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
       <c r="N23" s="123"/>
       <c r="O23" s="123"/>
       <c r="P23" s="123"/>
@@ -12074,12 +12146,8 @@
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>189</v>
-      </c>
+      <c r="C24" s="215"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="195"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
@@ -12089,18 +12157,10 @@
       <c r="K24" s="123"/>
       <c r="L24" s="123"/>
       <c r="M24" s="123"/>
-      <c r="N24" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
       <c r="R24" s="123"/>
       <c r="S24" s="123"/>
       <c r="T24" s="124"/>
@@ -12425,11 +12485,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="269" t="s">
+      <c r="B39" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
       <c r="E39" s="194"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -12459,11 +12519,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="270" t="s">
+      <c r="B40" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -12493,11 +12553,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="271" t="s">
+      <c r="B41" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -12527,11 +12587,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="272" t="s">
+      <c r="B42" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="273"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -12604,8 +12664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:T2"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -12627,59 +12687,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="247" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="251" t="str">
         <f>TestCaseList!E14</f>
         <v>SP004</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="295" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="299" t="str">
         <f>TestCaseList!D14</f>
         <v>createIssuePending(shipperID, newIssue, orders, categoryIssue)</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -12688,137 +12748,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
-        <v>9</v>
-      </c>
-      <c r="D4" s="258"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
+        <v>175</v>
+      </c>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="296">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="300">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-14.1</v>
-      </c>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+        <v>2.5</v>
+      </c>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="289"/>
+      <c r="T4" s="290"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="297" t="s">
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="301" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="301"/>
+      <c r="T6" s="301"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
+      <c r="A7" s="235">
+        <f>COUNTIF(F40:P40, "P")</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266" t="e">
+        <v>0</v>
+      </c>
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M7" s="80">
         <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="80">
         <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="276">
+        <v>0</v>
+      </c>
+      <c r="O7" s="277">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="277"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="278"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -12997,7 +13058,9 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
+      <c r="C15" s="215" t="s">
+        <v>191</v>
+      </c>
       <c r="D15" s="88"/>
       <c r="E15" s="198"/>
       <c r="F15" s="123"/>
@@ -13019,7 +13082,9 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
+      <c r="C16" s="215" t="s">
+        <v>191</v>
+      </c>
       <c r="D16" s="88"/>
       <c r="E16" s="198"/>
       <c r="F16" s="123"/>
@@ -13089,9 +13154,11 @@
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
+      <c r="C19" s="215" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -13111,7 +13178,9 @@
     <row r="20" spans="1:21" ht="13.5" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="C20" s="215" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" s="88"/>
       <c r="E20" s="198"/>
       <c r="F20" s="123"/>
@@ -13176,10 +13245,12 @@
     </row>
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="114"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="86" t="s">
+        <v>184</v>
+      </c>
       <c r="C23" s="87"/>
       <c r="D23" s="88"/>
-      <c r="E23" s="198"/>
+      <c r="E23" s="217"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -13195,11 +13266,14 @@
       <c r="R23" s="123"/>
       <c r="S23" s="123"/>
       <c r="T23" s="124"/>
+      <c r="U23" s="125"/>
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
+      <c r="C24" s="215" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" s="88"/>
       <c r="E24" s="198"/>
       <c r="F24" s="123"/>
@@ -13221,7 +13295,9 @@
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="114"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
+      <c r="C25" s="215" t="s">
+        <v>199</v>
+      </c>
       <c r="D25" s="88"/>
       <c r="E25" s="198"/>
       <c r="F25" s="123"/>
@@ -13264,10 +13340,12 @@
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="114"/>
-      <c r="B27" s="86"/>
+      <c r="B27" s="86" t="s">
+        <v>194</v>
+      </c>
       <c r="C27" s="87"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="198"/>
+      <c r="E27" s="217"/>
       <c r="F27" s="123"/>
       <c r="G27" s="123"/>
       <c r="H27" s="123"/>
@@ -13283,11 +13361,14 @@
       <c r="R27" s="123"/>
       <c r="S27" s="123"/>
       <c r="T27" s="124"/>
+      <c r="U27" s="125"/>
     </row>
     <row r="28" spans="1:21" ht="13.5" customHeight="1">
       <c r="A28" s="114"/>
       <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
+      <c r="C28" s="215" t="s">
+        <v>200</v>
+      </c>
       <c r="D28" s="88"/>
       <c r="E28" s="198"/>
       <c r="F28" s="123"/>
@@ -13309,7 +13390,9 @@
     <row r="29" spans="1:21" ht="13.5" customHeight="1">
       <c r="A29" s="114"/>
       <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
+      <c r="C29" s="215" t="s">
+        <v>200</v>
+      </c>
       <c r="D29" s="88"/>
       <c r="E29" s="198"/>
       <c r="F29" s="123"/>
@@ -13538,11 +13621,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="269" t="s">
+      <c r="B39" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
       <c r="E39" s="197"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -13559,44 +13642,24 @@
       <c r="J39" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="132"/>
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="270" t="s">
+      <c r="B40" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -13613,42 +13676,24 @@
       <c r="J40" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
       <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
+      <c r="S40" s="133"/>
+      <c r="T40" s="134"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="271" t="s">
+      <c r="B41" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -13665,53 +13710,31 @@
       <c r="J41" s="108">
         <v>39142</v>
       </c>
-      <c r="K41" s="108">
-        <v>39143</v>
-      </c>
-      <c r="L41" s="108">
-        <v>39144</v>
-      </c>
-      <c r="M41" s="108">
-        <v>39145</v>
-      </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="109"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="272" t="s">
+      <c r="B42" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="273"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
+      <c r="K42" s="111"/>
       <c r="L42" s="111"/>
       <c r="M42" s="111"/>
       <c r="N42" s="111"/>
@@ -13776,8 +13799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -13801,59 +13824,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="294" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="298" t="str">
         <f>TestCaseList!E15</f>
         <v>SP005</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="295" t="str">
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="299" t="str">
         <f>TestCaseList!D15</f>
         <v>createIssueDisconnect(shipperID)</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -13862,137 +13885,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="257">
-        <v>9</v>
-      </c>
-      <c r="D4" s="258"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="261">
+        <v>134</v>
+      </c>
+      <c r="D4" s="262"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="296">
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="300">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>-14.1</v>
-      </c>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+        <v>9.4</v>
+      </c>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="289"/>
+      <c r="T4" s="290"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="262" t="s">
+      <c r="B5" s="256"/>
+      <c r="C5" s="266" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="297" t="s">
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="301" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="301"/>
+      <c r="T6" s="301"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="231" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="266">
+      <c r="A7" s="235">
+        <f>COUNTIF(F40:K40, "P")</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="266" t="e">
+        <v>0</v>
+      </c>
+      <c r="D7" s="264"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="268"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M7" s="80">
         <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="80">
         <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="276">
+        <v>0</v>
+      </c>
+      <c r="O7" s="277">
         <f>COUNTA(E9:HT9)</f>
-        <v>15</v>
-      </c>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="277"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="278"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -14014,39 +14038,17 @@
       <c r="I9" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="140" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="141" t="s">
-        <v>20</v>
-      </c>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="141"/>
       <c r="U9" s="83"/>
       <c r="V9" s="84"/>
       <c r="W9" s="85"/>
@@ -14171,10 +14173,16 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="205"/>
-      <c r="F15" s="123"/>
+      <c r="F15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
@@ -14193,11 +14201,17 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>192</v>
+      </c>
       <c r="E16" s="205"/>
       <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="G16" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
       <c r="J16" s="123"/>
@@ -14215,12 +14229,18 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
+      <c r="C17" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>193</v>
+      </c>
       <c r="E17" s="205"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
+      <c r="H17" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="123"/>
       <c r="J17" s="123"/>
       <c r="K17" s="123"/>
@@ -14237,16 +14257,20 @@
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>185</v>
+      </c>
       <c r="E18" s="205"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="I18" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="J18" s="123"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
@@ -14264,8 +14288,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -14712,11 +14736,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="269" t="s">
+      <c r="B39" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
       <c r="E39" s="203"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -14730,47 +14754,25 @@
       <c r="I39" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="132" t="s">
-        <v>22</v>
-      </c>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="132"/>
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="270" t="s">
+      <c r="B40" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -14784,45 +14786,25 @@
       <c r="I40" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="133" t="s">
-        <v>26</v>
-      </c>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
       <c r="R40" s="133"/>
-      <c r="S40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="134" t="s">
-        <v>26</v>
-      </c>
+      <c r="S40" s="133"/>
+      <c r="T40" s="134"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="271" t="s">
+      <c r="B41" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -14836,56 +14818,32 @@
       <c r="I41" s="108">
         <v>39141</v>
       </c>
-      <c r="J41" s="108">
-        <v>39142</v>
-      </c>
-      <c r="K41" s="108">
-        <v>39143</v>
-      </c>
-      <c r="L41" s="108">
-        <v>39144</v>
-      </c>
-      <c r="M41" s="108">
-        <v>39145</v>
-      </c>
-      <c r="N41" s="108">
-        <v>39146</v>
-      </c>
-      <c r="O41" s="108">
-        <v>39147</v>
-      </c>
-      <c r="P41" s="108">
-        <v>39148</v>
-      </c>
-      <c r="Q41" s="108">
-        <v>39149</v>
-      </c>
-      <c r="R41" s="108">
-        <v>39150</v>
-      </c>
-      <c r="S41" s="108">
-        <v>39151</v>
-      </c>
-      <c r="T41" s="109">
-        <v>39152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="109"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="272" t="s">
+      <c r="B42" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="273"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
-      <c r="K42" s="111" t="s">
-        <v>30</v>
-      </c>
+      <c r="K42" s="111"/>
       <c r="L42" s="111"/>
       <c r="M42" s="111"/>
       <c r="N42" s="111"/>

--- a/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
+++ b/Develop/Users/QuyenNV/UnitTest/Template_UnitTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="202">
   <si>
     <t>&lt;Date when this test report is created&gt;</t>
   </si>
@@ -1077,9 +1077,6 @@
     <t>Store request cancel Order</t>
   </si>
   <si>
-    <t>req</t>
-  </si>
-  <si>
     <t>"SP000001"</t>
   </si>
   <si>
@@ -1089,12 +1086,6 @@
     <t>"AD000001"</t>
   </si>
   <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>UnauthorizedError</t>
-  </si>
-  <si>
     <t>"ST000001"</t>
   </si>
   <si>
@@ -1162,6 +1153,12 @@
   </si>
   <si>
     <t>getTasks(shipperid)</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Result: '6': [{orderid: 'OD078881', ispending: true, isresolved: false, taskid: 10}]</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3463,47 +3460,62 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="35" fillId="29" borderId="31" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="39" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="11" fontId="35" fillId="29" borderId="31" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="39" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3584,153 +3596,153 @@
     <xf numFmtId="14" fontId="41" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="84" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="84" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="77" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
@@ -3743,20 +3755,25 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3954,9 +3971,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3983,10 +3998,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4462,10 +4477,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4718,9 +4733,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-77C5-41FF-9711-8D3631D3D375}"/>
                 </c:ext>
@@ -4758,9 +4771,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6075,9 +6086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
   <cols>
@@ -6100,59 +6109,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="298" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="303" t="str">
         <f>TestCaseList!E16</f>
         <v>SP006</v>
       </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="254" t="s">
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="299" t="str">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="304" t="str">
         <f>TestCaseList!D16</f>
         <v>cancelOrder(ownerStoreUser, storeID, orderID)</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="287"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="278" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -6161,117 +6170,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
         <v>60</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="285"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="283" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="300">
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="299">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-6</v>
       </c>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="290"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="259"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="280" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="301" t="s">
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
+      <c r="A7" s="240">
         <f>COUNTIF(F43:T43,"P")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
         <f>COUNTIF(F43:HQ43,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263">
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286">
         <f>SUM(O7,- A7,- C7)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="287"/>
       <c r="L7" s="80">
         <f>COUNTIF(E42:HQ42,"N")</f>
         <v>7</v>
@@ -6284,15 +6293,15 @@
         <f>COUNTIF(E42:HQ42,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="277">
+      <c r="O7" s="261">
         <f>COUNTA(E9:HT9)</f>
         <v>12</v>
       </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="278"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -6330,10 +6339,10 @@
         <v>14</v>
       </c>
       <c r="O9" s="140" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P9" s="140" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="140" t="s">
         <v>17</v>
@@ -6440,7 +6449,7 @@
     </row>
     <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="215" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="87"/>
@@ -6465,8 +6474,8 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="209" t="s">
-        <v>181</v>
+      <c r="C15" s="208" t="s">
+        <v>178</v>
       </c>
       <c r="D15" s="88" t="s">
         <v>153</v>
@@ -6499,13 +6508,13 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="209" t="s">
-        <v>181</v>
+      <c r="C16" s="208" t="s">
+        <v>178</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="217"/>
+        <v>182</v>
+      </c>
+      <c r="E16" s="216"/>
       <c r="F16" s="123"/>
       <c r="G16" s="123" t="s">
         <v>56</v>
@@ -6533,13 +6542,13 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="209" t="s">
-        <v>181</v>
+      <c r="C17" s="208" t="s">
+        <v>178</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="217"/>
+        <v>183</v>
+      </c>
+      <c r="E17" s="216"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
       <c r="H17" s="123" t="s">
@@ -6588,7 +6597,7 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="215" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="87"/>
@@ -6614,8 +6623,8 @@
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="209" t="s">
-        <v>182</v>
+      <c r="C20" s="208" t="s">
+        <v>179</v>
       </c>
       <c r="D20" s="88" t="s">
         <v>153</v>
@@ -6652,11 +6661,11 @@
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="114"/>
       <c r="B21" s="86"/>
-      <c r="C21" s="219" t="s">
-        <v>182</v>
+      <c r="C21" s="218" t="s">
+        <v>179</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E21" s="88"/>
       <c r="F21" s="123"/>
@@ -6691,7 +6700,7 @@
       <c r="A22" s="114"/>
       <c r="B22" s="86"/>
       <c r="C22" s="87"/>
-      <c r="D22" s="218"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="88"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
@@ -6733,8 +6742,8 @@
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
-      <c r="B24" s="216" t="s">
-        <v>184</v>
+      <c r="B24" s="215" t="s">
+        <v>181</v>
       </c>
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
@@ -6758,8 +6767,8 @@
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="114"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="209" t="s">
-        <v>183</v>
+      <c r="C25" s="208" t="s">
+        <v>180</v>
       </c>
       <c r="D25" s="88" t="s">
         <v>153</v>
@@ -6796,11 +6805,11 @@
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
       <c r="A26" s="114"/>
       <c r="B26" s="86"/>
-      <c r="C26" s="209" t="s">
-        <v>183</v>
+      <c r="C26" s="208" t="s">
+        <v>180</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E26" s="205"/>
       <c r="F26" s="123"/>
@@ -7173,11 +7182,11 @@
       <c r="A42" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="270" t="s">
+      <c r="B42" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="270"/>
-      <c r="D42" s="270"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
       <c r="E42" s="203"/>
       <c r="F42" s="131" t="s">
         <v>24</v>
@@ -7221,11 +7230,11 @@
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1">
       <c r="A43" s="116"/>
-      <c r="B43" s="271" t="s">
+      <c r="B43" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271"/>
+      <c r="C43" s="270"/>
+      <c r="D43" s="270"/>
       <c r="E43" s="107"/>
       <c r="F43" s="133" t="s">
         <v>26</v>
@@ -7261,11 +7270,11 @@
     </row>
     <row r="44" spans="1:20" ht="13.5" customHeight="1">
       <c r="A44" s="116"/>
-      <c r="B44" s="272" t="s">
+      <c r="B44" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="272"/>
-      <c r="D44" s="272"/>
+      <c r="C44" s="271"/>
+      <c r="D44" s="271"/>
       <c r="E44" s="102"/>
       <c r="F44" s="108">
         <v>39139</v>
@@ -7309,11 +7318,11 @@
     </row>
     <row r="45" spans="1:20" ht="11.25" thickBot="1">
       <c r="A45" s="117"/>
-      <c r="B45" s="273" t="s">
+      <c r="B45" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="273"/>
-      <c r="D45" s="273"/>
+      <c r="C45" s="260"/>
+      <c r="D45" s="260"/>
       <c r="E45" s="110"/>
       <c r="F45" s="111"/>
       <c r="G45" s="111"/>
@@ -7336,12 +7345,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="A4:B4"/>
@@ -7355,14 +7366,12 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:T42">
@@ -7409,58 +7418,58 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="251" t="s">
+      <c r="B2" s="273"/>
+      <c r="C2" s="274" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="254" t="s">
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="299" t="str">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="304" t="str">
         <f>TestCaseList!D15</f>
         <v>createIssueDisconnect(shipperID)</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="287"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="278" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -7469,116 +7478,116 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
         <v>9</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="285"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="283" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="300">
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="299">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="290"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="259"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="280" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="301" t="s">
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="240" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263" t="e">
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286" t="e">
         <f>SUM(O7,- A7,- C7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="287"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -7591,15 +7600,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="277">
+      <c r="O7" s="261">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="278"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -7871,8 +7880,8 @@
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -8319,11 +8328,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="270" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="158"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -8373,11 +8382,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="271" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -8425,11 +8434,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="272" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -8479,11 +8488,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="273" t="s">
+      <c r="B42" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="273"/>
-      <c r="D42" s="273"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -8508,11 +8517,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -8528,14 +8540,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -8584,13 +8593,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="143" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="142"/>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="144"/>
@@ -8601,11 +8610,11 @@
       <c r="A4" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="160" t="s">
         <v>89</v>
       </c>
@@ -8617,11 +8626,11 @@
       <c r="A5" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="160" t="s">
         <v>92</v>
       </c>
@@ -8630,14 +8639,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="160" t="s">
         <v>94</v>
       </c>
@@ -8646,10 +8655,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="222"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
+      <c r="A7" s="227"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="160" t="s">
         <v>95</v>
       </c>
@@ -8796,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -8831,41 +8840,41 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="230" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="226" t="s">
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="228"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="233"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="230" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="226" t="str">
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="231" t="str">
         <f>Cover!B5</f>
         <v>AKP</v>
       </c>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="228"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="233"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="237" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="190">
         <v>100</v>
       </c>
@@ -8874,18 +8883,18 @@
       <c r="H6" s="192"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="224" t="s">
+      <c r="A7" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="229" t="s">
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="234" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="231"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="236"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -8940,7 +8949,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="189" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>156</v>
@@ -8958,7 +8967,7 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>157</v>
@@ -8976,7 +8985,7 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="202" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="201" t="s">
         <v>158</v>
@@ -9161,17 +9170,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -9188,65 +9197,65 @@
       <c r="A4" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240" t="s">
+      <c r="C4" s="244"/>
+      <c r="D4" s="245" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="240"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="243"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="248"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="240" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="245" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="240"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="243"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="240" t="s">
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="245" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="240"/>
-      <c r="F6" s="244" t="s">
+      <c r="E6" s="245"/>
+      <c r="F6" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="246"/>
+      <c r="G6" s="250"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="251"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -9331,11 +9340,11 @@
       </c>
       <c r="F12" s="47">
         <f>Function1!K7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="46">
         <f>Function1!L7</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="46">
         <f>Function1!M7</f>
@@ -9376,8 +9385,8 @@
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="45"/>
       <c r="B14" s="196"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="236"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46"/>
@@ -9425,11 +9434,11 @@
       </c>
       <c r="F17" s="49">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="0"/>
@@ -9494,7 +9503,7 @@
       <c r="C21" s="41"/>
       <c r="D21" s="173">
         <f>F17*100/I17</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>5</v>
@@ -9506,7 +9515,7 @@
       </c>
       <c r="D22" s="173">
         <f>G17*100/I17</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>5</v>
@@ -9559,10 +9568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -9586,57 +9595,57 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="251" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="274" t="str">
         <f>TestCaseList!E11</f>
         <v>SP001</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="254" t="s">
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="285" t="str">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="254" t="str">
         <f>TestCaseList!D11</f>
         <v>getTasks(shipperid)</v>
       </c>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="287"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="256"/>
       <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="278" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="284"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
       <c r="N3" s="77"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
@@ -9645,134 +9654,134 @@
       <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
         <v>42</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="285"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="283" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="288">
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="257">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- N7),"N/A")</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="L4" s="289"/>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="290"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="259"/>
       <c r="U4" s="76"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="266"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="279" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="280"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="279" t="s">
+      <c r="L6" s="265"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="281"/>
+      <c r="O6" s="265"/>
+      <c r="P6" s="265"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="265"/>
+      <c r="S6" s="266"/>
       <c r="U6" s="76"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F37:HP37,"P")</f>
+      <c r="A7" s="240">
+        <f>COUNTIF(F38:HP38,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
-        <f>COUNTIF(F37:HP37,"F")</f>
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
+        <f>COUNTIF(F38:HP38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263">
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286">
         <f>SUM(N7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="265"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="287"/>
       <c r="K7" s="80">
-        <f>COUNTIF(E36:HP36,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E37:HP37,"N")</f>
+        <v>4</v>
       </c>
       <c r="L7" s="80">
-        <f>COUNTIF(E36:HP36,"A")</f>
-        <v>3</v>
+        <f>COUNTIF(E37:HP37,"A")</f>
+        <v>1</v>
       </c>
       <c r="M7" s="80">
-        <f>COUNTIF(E36:HP36,"B")</f>
+        <f>COUNTIF(E37:HP37,"B")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="277">
+      <c r="N7" s="261">
         <f>COUNTA(E9:HS9)</f>
         <v>5</v>
       </c>
-      <c r="O7" s="264"/>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="278"/>
+      <c r="O7" s="262"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="263"/>
       <c r="T7" s="81"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9924,7 +9933,7 @@
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="210"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="87"/>
       <c r="D15" s="88"/>
       <c r="E15" s="195"/>
@@ -9946,8 +9955,8 @@
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="209" t="s">
-        <v>196</v>
+      <c r="C16" s="208" t="s">
+        <v>193</v>
       </c>
       <c r="D16" s="88" t="s">
         <v>153</v>
@@ -9973,11 +9982,11 @@
     <row r="17" spans="1:20" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="208" t="s">
-        <v>175</v>
+      <c r="C17" s="208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="207" t="s">
+        <v>174</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="123"/>
@@ -10000,11 +10009,11 @@
     <row r="18" spans="1:20" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="209" t="s">
-        <v>196</v>
+      <c r="C18" s="208" t="s">
+        <v>193</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="123"/>
@@ -10027,11 +10036,11 @@
     <row r="19" spans="1:20" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="209" t="s">
-        <v>196</v>
+      <c r="C19" s="208" t="s">
+        <v>193</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="195"/>
       <c r="F19" s="123"/>
@@ -10054,11 +10063,11 @@
     <row r="20" spans="1:20" ht="13.5" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="209" t="s">
-        <v>196</v>
+      <c r="C20" s="208" t="s">
+        <v>193</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E20" s="195"/>
       <c r="F20" s="123"/>
@@ -10212,14 +10221,22 @@
     <row r="27" spans="1:20" ht="13.5" customHeight="1">
       <c r="A27" s="116"/>
       <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
+      <c r="C27" s="306" t="s">
+        <v>200</v>
+      </c>
       <c r="D27" s="97"/>
       <c r="E27" s="98"/>
-      <c r="F27" s="121"/>
+      <c r="F27" s="121" t="s">
+        <v>56</v>
+      </c>
       <c r="G27" s="121"/>
       <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
+      <c r="I27" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="121" t="s">
+        <v>56</v>
+      </c>
       <c r="K27" s="121"/>
       <c r="L27" s="121"/>
       <c r="M27" s="121"/>
@@ -10251,42 +10268,42 @@
       <c r="R28" s="121"/>
       <c r="S28" s="122"/>
     </row>
-    <row r="29" spans="1:20" ht="13.5" customHeight="1">
+    <row r="29" spans="1:20" ht="41.25" customHeight="1">
       <c r="A29" s="116"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="122"/>
-    </row>
-    <row r="30" spans="1:20" ht="41.25" customHeight="1">
+      <c r="B29" s="307" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="308"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="124"/>
+    </row>
+    <row r="30" spans="1:20" ht="13.5" customHeight="1">
       <c r="A30" s="116"/>
-      <c r="B30" s="274" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="275"/>
-      <c r="D30" s="276"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="222"/>
       <c r="E30" s="102"/>
       <c r="F30" s="123"/>
-      <c r="G30" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
       <c r="I30" s="123"/>
       <c r="J30" s="123"/>
       <c r="K30" s="123"/>
@@ -10299,13 +10316,11 @@
       <c r="R30" s="123"/>
       <c r="S30" s="124"/>
     </row>
-    <row r="31" spans="1:20" ht="13.5" customHeight="1">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1">
       <c r="A31" s="116"/>
-      <c r="B31" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="100"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="222"/>
       <c r="E31" s="102"/>
       <c r="F31" s="123"/>
       <c r="G31" s="123"/>
@@ -10324,7 +10339,9 @@
     </row>
     <row r="32" spans="1:20" ht="13.5" customHeight="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
+      <c r="B32" s="101" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="128"/>
       <c r="D32" s="100"/>
       <c r="E32" s="102"/>
@@ -10345,9 +10362,7 @@
     </row>
     <row r="33" spans="1:19" ht="13.5" customHeight="1">
       <c r="A33" s="116"/>
-      <c r="B33" s="101" t="s">
-        <v>42</v>
-      </c>
+      <c r="B33" s="101"/>
       <c r="C33" s="128"/>
       <c r="D33" s="100"/>
       <c r="E33" s="102"/>
@@ -10368,23 +10383,17 @@
     </row>
     <row r="34" spans="1:19" ht="13.5" customHeight="1">
       <c r="A34" s="116"/>
-      <c r="B34" s="101"/>
+      <c r="B34" s="101" t="s">
+        <v>42</v>
+      </c>
       <c r="C34" s="128"/>
-      <c r="D34" s="303" t="s">
-        <v>179</v>
-      </c>
+      <c r="D34" s="100"/>
       <c r="E34" s="102"/>
-      <c r="F34" s="304" t="s">
-        <v>56</v>
-      </c>
+      <c r="F34" s="123"/>
       <c r="G34" s="123"/>
       <c r="H34" s="123"/>
-      <c r="I34" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
       <c r="K34" s="123"/>
       <c r="L34" s="123"/>
       <c r="M34" s="123"/>
@@ -10395,193 +10404,214 @@
       <c r="R34" s="123"/>
       <c r="S34" s="124"/>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
+    <row r="35" spans="1:19" ht="13.5" customHeight="1">
       <c r="A35" s="116"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="130"/>
-    </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A36" s="115" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="124"/>
+    </row>
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="130"/>
+    </row>
+    <row r="37" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A37" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="270" t="s">
+      <c r="B37" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="270"/>
-      <c r="D36" s="270"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="131" t="s">
+      <c r="C37" s="269"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="131" t="s">
+      <c r="G37" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="131" t="s">
+      <c r="H37" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="132"/>
-    </row>
-    <row r="37" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="271" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="271"/>
-      <c r="D37" s="271"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="134"/>
+      <c r="I37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="132"/>
     </row>
     <row r="38" spans="1:19" ht="13.5" customHeight="1">
       <c r="A38" s="116"/>
-      <c r="B38" s="272" t="s">
+      <c r="B38" s="270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="270"/>
+      <c r="D38" s="270"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="134"/>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A39" s="116"/>
+      <c r="B39" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="272"/>
-      <c r="D38" s="272"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="108">
+      <c r="C39" s="271"/>
+      <c r="D39" s="271"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="108">
         <v>39139</v>
       </c>
-      <c r="G38" s="108">
+      <c r="G39" s="108">
         <v>39139</v>
       </c>
-      <c r="H38" s="108">
+      <c r="H39" s="108">
         <v>39139</v>
       </c>
-      <c r="I38" s="108">
+      <c r="I39" s="108">
         <v>39139</v>
       </c>
-      <c r="J38" s="108">
+      <c r="J39" s="108">
         <v>39139</v>
       </c>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="109"/>
-    </row>
-    <row r="39" spans="1:19" ht="11.25" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="273" t="s">
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="109"/>
+    </row>
+    <row r="40" spans="1:19" ht="11.25" thickBot="1">
+      <c r="A40" s="117"/>
+      <c r="B40" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="273"/>
-      <c r="D39" s="273"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="112"/>
-    </row>
-    <row r="40" spans="1:19" ht="11.25" thickTop="1">
-      <c r="A40" s="135"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="260"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="112"/>
+    </row>
+    <row r="41" spans="1:19" ht="11.25" thickTop="1">
+      <c r="A41" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36:S36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:S37">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:S37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:S38">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:S35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:S36">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10595,8 +10625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -10604,7 +10634,7 @@
     <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="74" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="75" customWidth="1"/>
     <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
@@ -10620,24 +10650,24 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="251" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="274" t="str">
         <f>TestCaseList!E12</f>
         <v>SP002</v>
       </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="254" t="s">
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
       <c r="L2" s="291" t="str">
         <f>TestCaseList!D12</f>
         <v>getTaskBeIssuePending(shipperid)</v>
@@ -10653,26 +10683,26 @@
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="278" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="284"/>
-      <c r="N3" s="284"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -10681,138 +10711,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
         <v>42</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="285"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="283" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="288">
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="257">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="290"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="259"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="280"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="279" t="s">
+      <c r="M6" s="265"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="281"/>
+      <c r="P6" s="265"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="265"/>
+      <c r="S6" s="265"/>
+      <c r="T6" s="266"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
+      <c r="A7" s="240">
         <f>COUNTIF(F32:HQ32,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
         <f>COUNTIF(F32:HQ32,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263">
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="287"/>
       <c r="L7" s="80">
         <f>COUNTIF(E31:HQ31,"N")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="80">
         <f>COUNTIF(E31:HQ31,"A")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="80">
         <f>COUNTIF(E31:HQ31,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="277">
+      <c r="O7" s="261">
         <f>COUNTA(E9:HT9)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="278"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -10970,13 +11000,17 @@
     </row>
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="210" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="195"/>
-      <c r="F15" s="123"/>
+      <c r="F15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
@@ -10995,17 +11029,17 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>153</v>
+      <c r="C16" s="208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="207" t="s">
+        <v>174</v>
       </c>
       <c r="E16" s="195"/>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="123"/>
+      <c r="G16" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="123"/>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
       <c r="J16" s="123"/>
@@ -11019,22 +11053,23 @@
       <c r="R16" s="123"/>
       <c r="S16" s="123"/>
       <c r="T16" s="124"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="U16" s="125"/>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="208" t="s">
+      <c r="C17" s="208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="200" t="s">
         <v>175</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="123"/>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="123"/>
+      <c r="H17" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="123"/>
       <c r="I17" s="123"/>
       <c r="J17" s="123"/>
       <c r="K17" s="123"/>
@@ -11047,24 +11082,23 @@
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
       <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:20" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="200" t="s">
+      <c r="C18" s="208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="88" t="s">
         <v>176</v>
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="123"/>
+      <c r="I18" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="123"/>
       <c r="J18" s="123"/>
       <c r="K18" s="123"/>
       <c r="L18" s="123"/>
@@ -11077,11 +11111,11 @@
       <c r="S18" s="123"/>
       <c r="T18" s="124"/>
     </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
+    <row r="19" spans="1:20" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="209" t="s">
-        <v>196</v>
+      <c r="C19" s="208" t="s">
+        <v>193</v>
       </c>
       <c r="D19" s="88" t="s">
         <v>177</v>
@@ -11090,10 +11124,10 @@
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
-      <c r="I19" s="123" t="s">
+      <c r="I19" s="123"/>
+      <c r="J19" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="123"/>
       <c r="K19" s="123"/>
       <c r="L19" s="123"/>
       <c r="M19" s="123"/>
@@ -11105,90 +11139,90 @@
       <c r="S19" s="123"/>
       <c r="T19" s="124"/>
     </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+    <row r="20" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="114"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="195"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="127"/>
+    </row>
+    <row r="21" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="122"/>
+    </row>
+    <row r="22" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A22" s="116"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="306" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="124"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="127"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A22" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="122"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
+    </row>
+    <row r="23" spans="1:20" ht="13.5" customHeight="1">
       <c r="A23" s="116"/>
-      <c r="B23" s="211" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="96"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="305"/>
       <c r="D23" s="100"/>
-      <c r="E23" s="193"/>
+      <c r="E23" s="219"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -11205,12 +11239,12 @@
       <c r="S23" s="123"/>
       <c r="T23" s="124"/>
     </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+    <row r="24" spans="1:20" ht="13.5" customHeight="1">
       <c r="A24" s="116"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="305"/>
       <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
+      <c r="E24" s="219"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
@@ -11227,15 +11261,21 @@
       <c r="S24" s="123"/>
       <c r="T24" s="124"/>
     </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+    <row r="25" spans="1:20" ht="13.5" customHeight="1">
       <c r="A25" s="116"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="310" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="311"/>
+      <c r="D25" s="312"/>
       <c r="E25" s="102"/>
       <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
+      <c r="G25" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="I25" s="123"/>
       <c r="J25" s="123"/>
       <c r="K25" s="123"/>
@@ -11249,10 +11289,10 @@
       <c r="S25" s="123"/>
       <c r="T25" s="124"/>
     </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+    <row r="26" spans="1:20" ht="13.5" customHeight="1">
       <c r="A26" s="116"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
+      <c r="B26" s="294"/>
+      <c r="C26" s="295"/>
       <c r="D26" s="100"/>
       <c r="E26" s="102"/>
       <c r="F26" s="123"/>
@@ -11271,7 +11311,7 @@
       <c r="S26" s="123"/>
       <c r="T26" s="124"/>
     </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+    <row r="27" spans="1:20" ht="13.5" customHeight="1">
       <c r="A27" s="116"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
@@ -11293,21 +11333,15 @@
       <c r="S27" s="123"/>
       <c r="T27" s="124"/>
     </row>
-    <row r="28" spans="1:21" ht="51" customHeight="1">
+    <row r="28" spans="1:20" ht="13.5" customHeight="1">
       <c r="A28" s="116"/>
-      <c r="B28" s="274" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="275"/>
-      <c r="D28" s="276"/>
-      <c r="E28" s="206"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="123"/>
-      <c r="G28" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="123" t="s">
-        <v>56</v>
-      </c>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
       <c r="I28" s="123"/>
       <c r="J28" s="123"/>
       <c r="K28" s="123"/>
@@ -11321,12 +11355,12 @@
       <c r="S28" s="123"/>
       <c r="T28" s="124"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" customHeight="1">
+    <row r="29" spans="1:20" ht="16.5" customHeight="1">
       <c r="A29" s="116"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="212"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="211"/>
       <c r="F29" s="129"/>
       <c r="G29" s="129"/>
       <c r="H29" s="129"/>
@@ -11343,7 +11377,7 @@
       <c r="S29" s="129"/>
       <c r="T29" s="130"/>
     </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+    <row r="30" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="116"/>
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
@@ -11365,15 +11399,15 @@
       <c r="S30" s="129"/>
       <c r="T30" s="130"/>
     </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+    <row r="31" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
       <c r="A31" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="270" t="s">
+      <c r="B31" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
       <c r="E31" s="194"/>
       <c r="F31" s="131" t="s">
         <v>24</v>
@@ -11385,10 +11419,10 @@
         <v>22</v>
       </c>
       <c r="I31" s="131" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J31" s="131" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K31" s="131"/>
       <c r="L31" s="131"/>
@@ -11401,13 +11435,13 @@
       <c r="S31" s="131"/>
       <c r="T31" s="132"/>
     </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+    <row r="32" spans="1:20" ht="13.5" customHeight="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="271" t="s">
+      <c r="B32" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
       <c r="E32" s="107"/>
       <c r="F32" s="133" t="s">
         <v>26</v>
@@ -11437,11 +11471,11 @@
     </row>
     <row r="33" spans="1:20" ht="13.5" customHeight="1">
       <c r="A33" s="116"/>
-      <c r="B33" s="272" t="s">
+      <c r="B33" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
       <c r="E33" s="102"/>
       <c r="F33" s="108">
         <v>39139</v>
@@ -11471,11 +11505,11 @@
     </row>
     <row r="34" spans="1:20" ht="11.25" thickBot="1">
       <c r="A34" s="117"/>
-      <c r="B34" s="273" t="s">
+      <c r="B34" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="273"/>
-      <c r="D34" s="273"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="260"/>
       <c r="E34" s="110"/>
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
@@ -11498,23 +11532,9 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
@@ -11527,6 +11547,20 @@
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:T31">
@@ -11546,10 +11580,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
@@ -11573,59 +11607,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="298" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="303" t="str">
         <f>TestCaseList!E13</f>
         <v>SP003</v>
       </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="254" t="s">
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="299" t="str">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="304" t="str">
         <f>TestCaseList!D13</f>
         <v>changeIsPending(shipperid, issueId)</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="287"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="278" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -11634,138 +11668,138 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
         <v>119</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="285"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="283" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="300">
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="299">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="290"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="259"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="280" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="301" t="s">
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F40:J40, "P")</f>
+      <c r="A7" s="240">
+        <f>COUNTIF(F38:J38, "P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
-        <f>COUNTIF(F40:HQ40,"F")</f>
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
+        <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263">
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286">
         <f>SUM(O7,- A7,- C7)</f>
         <v>7</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="287"/>
       <c r="L7" s="80">
-        <f>COUNTIF(E39:HQ39,"N")</f>
+        <f>COUNTIF(E37:HQ37,"N")</f>
         <v>5</v>
       </c>
       <c r="M7" s="80">
-        <f>COUNTIF(E39:HQ39,"A")</f>
+        <f>COUNTIF(E37:HQ37,"A")</f>
         <v>0</v>
       </c>
       <c r="N7" s="80">
-        <f>COUNTIF(E39:HQ39,"B")</f>
+        <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="277">
+      <c r="O7" s="261">
         <f>COUNTA(E9:HT9)</f>
         <v>12</v>
       </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="278"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -11915,7 +11949,7 @@
     </row>
     <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="210"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="87"/>
       <c r="D14" s="88"/>
       <c r="E14" s="195"/>
@@ -11938,12 +11972,16 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="215" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="88"/>
+      <c r="C15" s="214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="195"/>
-      <c r="F15" s="123"/>
+      <c r="F15" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="123"/>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
@@ -11962,11 +12000,13 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="215" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="207"/>
+      <c r="C16" s="214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="206"/>
       <c r="F16" s="123"/>
       <c r="G16" s="123"/>
       <c r="H16" s="123"/>
@@ -11986,9 +12026,13 @@
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="207"/>
+      <c r="C17" s="214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="206"/>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
       <c r="H17" s="123"/>
@@ -12007,9 +12051,13 @@
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="207"/>
+      <c r="C18" s="214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="206"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
@@ -12028,10 +12076,10 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="297"/>
+      <c r="B19" s="301"/>
+      <c r="C19" s="302"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="207"/>
+      <c r="E19" s="206"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -12098,12 +12146,16 @@
     <row r="22" spans="1:21" ht="13.5" customHeight="1">
       <c r="A22" s="114"/>
       <c r="B22" s="86"/>
-      <c r="C22" s="215" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="302"/>
-      <c r="E22" s="302"/>
-      <c r="F22" s="123"/>
+      <c r="C22" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="298" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="298"/>
+      <c r="F22" s="123" t="s">
+        <v>56</v>
+      </c>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
       <c r="I22" s="123"/>
@@ -12122,10 +12174,12 @@
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="114"/>
       <c r="B23" s="86"/>
-      <c r="C23" s="215" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="88"/>
+      <c r="C23" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="88">
+        <v>6</v>
+      </c>
       <c r="E23" s="195"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
@@ -12146,7 +12200,7 @@
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="215"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="88"/>
       <c r="E24" s="195"/>
       <c r="F24" s="123"/>
@@ -12231,104 +12285,106 @@
       <c r="S27" s="123"/>
       <c r="T27" s="124"/>
     </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+    <row r="28" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="114"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="124"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="114"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="124"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="127"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A31" s="115" t="s">
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="127"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A29" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B29" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="122"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="122"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A30" s="116"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="124"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="124"/>
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
+      <c r="B32" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="128"/>
       <c r="D32" s="100"/>
-      <c r="E32" s="193"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="123"/>
       <c r="G32" s="123"/>
       <c r="H32" s="123"/>
@@ -12370,7 +12426,7 @@
     <row r="34" spans="1:20" ht="13.5" customHeight="1">
       <c r="A34" s="116"/>
       <c r="B34" s="101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="128"/>
       <c r="D34" s="100"/>
@@ -12413,220 +12469,161 @@
       <c r="S35" s="123"/>
       <c r="T35" s="124"/>
     </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A36" s="116"/>
-      <c r="B36" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="130"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A37" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="269" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="269"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="132"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A39" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="270" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="132"/>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="271" t="s">
+      <c r="B38" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="133" t="s">
+      <c r="C38" s="270"/>
+      <c r="D38" s="270"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="133" t="s">
+      <c r="G38" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="133" t="s">
+      <c r="H38" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="133" t="s">
+      <c r="I38" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="133" t="s">
+      <c r="J38" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="134"/>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="272" t="s">
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="134"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A39" s="116"/>
+      <c r="B39" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="108">
+      <c r="C39" s="271"/>
+      <c r="D39" s="271"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="108">
         <v>39139</v>
       </c>
-      <c r="G41" s="108">
+      <c r="G39" s="108">
         <v>39139</v>
       </c>
-      <c r="H41" s="108">
+      <c r="H39" s="108">
         <v>39140</v>
       </c>
-      <c r="I41" s="108">
+      <c r="I39" s="108">
         <v>39141</v>
       </c>
-      <c r="J41" s="108">
+      <c r="J39" s="108">
         <v>39142</v>
       </c>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="109"/>
-    </row>
-    <row r="42" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="273" t="s">
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="109"/>
+    </row>
+    <row r="40" spans="1:20" ht="11.25" thickBot="1">
+      <c r="A40" s="117"/>
+      <c r="B40" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="273"/>
-      <c r="D42" s="273"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A43" s="135"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="260"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="112"/>
+    </row>
+    <row r="41" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A41" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -12643,15 +12640,28 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:T38">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -12687,59 +12697,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="251" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="274" t="str">
         <f>TestCaseList!E14</f>
         <v>SP004</v>
       </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="254" t="s">
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="299" t="str">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="304" t="str">
         <f>TestCaseList!D14</f>
         <v>createIssuePending(shipperID, newIssue, orders, categoryIssue)</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="287"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="278" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -12748,117 +12758,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
         <v>175</v>
       </c>
-      <c r="D4" s="262"/>
+      <c r="D4" s="285"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="283" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="300">
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="299">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>2.5</v>
       </c>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="290"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="259"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="280" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="301" t="s">
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
+      <c r="A7" s="240">
         <f>COUNTIF(F40:P40, "P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263">
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286">
         <f>SUM(O7,- A7,- C7)</f>
         <v>10</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="287"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>5</v>
@@ -12871,15 +12881,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="277">
+      <c r="O7" s="261">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="278"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -13058,8 +13068,8 @@
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="215" t="s">
-        <v>191</v>
+      <c r="C15" s="214" t="s">
+        <v>188</v>
       </c>
       <c r="D15" s="88"/>
       <c r="E15" s="198"/>
@@ -13082,8 +13092,8 @@
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="114"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="215" t="s">
-        <v>191</v>
+      <c r="C16" s="214" t="s">
+        <v>188</v>
       </c>
       <c r="D16" s="88"/>
       <c r="E16" s="198"/>
@@ -13154,11 +13164,11 @@
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="114"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="215" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
+      <c r="C19" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="123"/>
       <c r="G19" s="123"/>
       <c r="H19" s="123"/>
@@ -13178,8 +13188,8 @@
     <row r="20" spans="1:21" ht="13.5" customHeight="1">
       <c r="A20" s="114"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="215" t="s">
-        <v>198</v>
+      <c r="C20" s="214" t="s">
+        <v>195</v>
       </c>
       <c r="D20" s="88"/>
       <c r="E20" s="198"/>
@@ -13246,11 +13256,11 @@
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="114"/>
       <c r="B23" s="86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C23" s="87"/>
       <c r="D23" s="88"/>
-      <c r="E23" s="217"/>
+      <c r="E23" s="216"/>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
@@ -13271,8 +13281,8 @@
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="114"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="215" t="s">
-        <v>199</v>
+      <c r="C24" s="214" t="s">
+        <v>196</v>
       </c>
       <c r="D24" s="88"/>
       <c r="E24" s="198"/>
@@ -13295,8 +13305,8 @@
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="114"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="215" t="s">
-        <v>199</v>
+      <c r="C25" s="214" t="s">
+        <v>196</v>
       </c>
       <c r="D25" s="88"/>
       <c r="E25" s="198"/>
@@ -13341,11 +13351,11 @@
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="114"/>
       <c r="B27" s="86" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C27" s="87"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="217"/>
+      <c r="E27" s="216"/>
       <c r="F27" s="123"/>
       <c r="G27" s="123"/>
       <c r="H27" s="123"/>
@@ -13366,8 +13376,8 @@
     <row r="28" spans="1:21" ht="13.5" customHeight="1">
       <c r="A28" s="114"/>
       <c r="B28" s="86"/>
-      <c r="C28" s="215" t="s">
-        <v>200</v>
+      <c r="C28" s="214" t="s">
+        <v>197</v>
       </c>
       <c r="D28" s="88"/>
       <c r="E28" s="198"/>
@@ -13390,8 +13400,8 @@
     <row r="29" spans="1:21" ht="13.5" customHeight="1">
       <c r="A29" s="114"/>
       <c r="B29" s="86"/>
-      <c r="C29" s="215" t="s">
-        <v>200</v>
+      <c r="C29" s="214" t="s">
+        <v>197</v>
       </c>
       <c r="D29" s="88"/>
       <c r="E29" s="198"/>
@@ -13621,11 +13631,11 @@
       <c r="A39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="270" t="s">
+      <c r="B39" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="197"/>
       <c r="F39" s="131" t="s">
         <v>22</v>
@@ -13655,11 +13665,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="271" t="s">
+      <c r="B40" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="107"/>
       <c r="F40" s="133" t="s">
         <v>26</v>
@@ -13689,11 +13699,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="272" t="s">
+      <c r="B41" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="102"/>
       <c r="F41" s="108">
         <v>39139</v>
@@ -13723,11 +13733,1120 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="273" t="s">
+      <c r="B42" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="273"/>
-      <c r="D42" s="273"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="112"/>
+    </row>
+    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+      <c r="A43" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A2" s="272" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="273"/>
+      <c r="C2" s="303" t="str">
+        <f>TestCaseList!E15</f>
+        <v>SP005</v>
+      </c>
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="277" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="304" t="str">
+        <f>TestCaseList!D15</f>
+        <v>createIssueDisconnect(shipperID)</v>
+      </c>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A3" s="278" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="279"/>
+      <c r="C3" s="280" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="281"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="283" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="278" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="279"/>
+      <c r="C4" s="284">
+        <v>134</v>
+      </c>
+      <c r="D4" s="285"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="283" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="299">
+        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
+        <v>9.4</v>
+      </c>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="259"/>
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="278" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="279"/>
+      <c r="C5" s="288" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A6" s="290" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="290"/>
+      <c r="C6" s="268" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="265" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="300" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="V6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="240">
+        <f>COUNTIF(F40:K40, "P")</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="241"/>
+      <c r="C7" s="286">
+        <f>COUNTIF(F40:HQ40,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="262"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="286">
+        <f>SUM(O7,- A7,- C7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="287"/>
+      <c r="L7" s="80">
+        <f>COUNTIF(E39:HQ39,"N")</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="80">
+        <f>COUNTIF(E39:HQ39,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="80">
+        <f>COUNTIF(E39:HQ39,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="261">
+        <f>COUNTA(E9:HT9)</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="81"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="122"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="124"/>
+      <c r="V11" s="76"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="124"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="124"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="205"/>
+      <c r="F15" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="205"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="124"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="205"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="205"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="124"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="124"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="124"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="124"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="124"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="124"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="124"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="124"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="124"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="127"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A31" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="122"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="124"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="124"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="128"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="124"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="124"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="124"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="124"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="130"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A39" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="269" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="132"/>
+    </row>
+    <row r="40" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133"/>
+      <c r="T40" s="134"/>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="271" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="G41" s="108">
+        <v>39139</v>
+      </c>
+      <c r="H41" s="108">
+        <v>39140</v>
+      </c>
+      <c r="I41" s="108">
+        <v>39141</v>
+      </c>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="109"/>
+    </row>
+    <row r="42" spans="1:20" ht="11.25" thickBot="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
       <c r="E42" s="110"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
@@ -13793,1113 +14912,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="75" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="74" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="74" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="74" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="249" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="298" t="str">
-        <f>TestCaseList!E15</f>
-        <v>SP005</v>
-      </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="254" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="299" t="str">
-        <f>TestCaseList!D15</f>
-        <v>createIssueDisconnect(shipperID)</v>
-      </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="287"/>
-      <c r="V2" s="76"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="260" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="261">
-        <v>134</v>
-      </c>
-      <c r="D4" s="262"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="260" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="300">
-        <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
-        <v>9.4</v>
-      </c>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="290"/>
-      <c r="V4" s="76"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="266" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="268" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="280" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="301" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
-      <c r="V6" s="76"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="235">
-        <f>COUNTIF(F40:K40, "P")</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="263">
-        <f>COUNTIF(F40:HQ40,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="263">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="80">
-        <f>COUNTIF(E39:HQ39,"N")</f>
-        <v>4</v>
-      </c>
-      <c r="M7" s="80">
-        <f>COUNTIF(E39:HQ39,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="80">
-        <f>COUNTIF(E39:HQ39,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="277">
-        <f>COUNTA(E9:HT9)</f>
-        <v>4</v>
-      </c>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="278"/>
-      <c r="U7" s="81"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="85"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="122"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="124"/>
-      <c r="V11" s="76"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="124"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="124"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="124"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="205"/>
-      <c r="F15" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="124"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="205"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="124"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="205"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="125"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="125"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="124"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="124"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="124"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="124"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="124"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="124"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="124"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="124"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="124"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="114"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="124"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="114"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="124"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="127"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A31" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="122"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="124"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="124"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A39" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="270" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="131"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="132"/>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="271" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="134"/>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="272" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="G41" s="108">
-        <v>39139</v>
-      </c>
-      <c r="H41" s="108">
-        <v>39140</v>
-      </c>
-      <c r="I41" s="108">
-        <v>39141</v>
-      </c>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="109"/>
-    </row>
-    <row r="42" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="273" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="273"/>
-      <c r="D42" s="273"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-    </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A43" s="135"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>